--- a/Kartei.xlsx
+++ b/Kartei.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4ec4a8a11e8d582b/Desktop/Kartei/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{02B4305B-4F4D-46E2-9FB4-462BD32138B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{02B4305B-4F4D-46E2-9FB4-462BD32138B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9478DDE5-B837-4EF9-A892-4DFDAEC21D55}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{67EA128D-3B4B-47B1-BE1B-CDD57181D158}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="411">
   <si>
     <t>Kennziffer</t>
   </si>
@@ -621,16 +621,671 @@
   </si>
   <si>
     <t>36.png</t>
+  </si>
+  <si>
+    <t>Caroline</t>
+  </si>
+  <si>
+    <t>Vertriebsmanagerin</t>
+  </si>
+  <si>
+    <t>Zypressenplatz 20, 80519 München</t>
+  </si>
+  <si>
+    <t>37.png</t>
+  </si>
+  <si>
+    <t>Immobilienmakler</t>
+  </si>
+  <si>
+    <t>Tannenallee 72, 80297 München</t>
+  </si>
+  <si>
+    <t>38.png</t>
+  </si>
+  <si>
+    <t>Viktoria</t>
+  </si>
+  <si>
+    <t>Musiklehrerin</t>
+  </si>
+  <si>
+    <t>Fliederweg 67, 80900 München</t>
+  </si>
+  <si>
+    <t>39.png</t>
+  </si>
+  <si>
+    <t>Herrmann</t>
+  </si>
+  <si>
+    <t>Moritz</t>
+  </si>
+  <si>
+    <t>Informatikstudent</t>
+  </si>
+  <si>
+    <t>Akazienplatz 98, 80771 München</t>
+  </si>
+  <si>
+    <t>40.png</t>
+  </si>
+  <si>
+    <t>Krüger</t>
+  </si>
+  <si>
+    <t>Anja</t>
+  </si>
+  <si>
+    <t>Bibliothekarin</t>
+  </si>
+  <si>
+    <t>Farnweg 23, 80262 München</t>
+  </si>
+  <si>
+    <t>41.png</t>
+  </si>
+  <si>
+    <t>Lars</t>
+  </si>
+  <si>
+    <t>Tulpenallee 44, 80134 München</t>
+  </si>
+  <si>
+    <t>42.png</t>
+  </si>
+  <si>
+    <t>Zimmermann</t>
+  </si>
+  <si>
+    <t>Clara</t>
+  </si>
+  <si>
+    <t>Yoga-Lehrerin</t>
+  </si>
+  <si>
+    <t>Magnolienplatz 96, 80348 München</t>
+  </si>
+  <si>
+    <t>43.png</t>
+  </si>
+  <si>
+    <t>Schulze</t>
+  </si>
+  <si>
+    <t>Niklas</t>
+  </si>
+  <si>
+    <t>Statistiker</t>
+  </si>
+  <si>
+    <t>Asternweg 59, 80462 München</t>
+  </si>
+  <si>
+    <t>44.png</t>
+  </si>
+  <si>
+    <t>Maria</t>
+  </si>
+  <si>
+    <t>Modedesignerin</t>
+  </si>
+  <si>
+    <t>Orchideenallee 82, 80803 München</t>
+  </si>
+  <si>
+    <t>45.png</t>
+  </si>
+  <si>
+    <t>Maier</t>
+  </si>
+  <si>
+    <t>Thomas</t>
+  </si>
+  <si>
+    <t>Buchhändler</t>
+  </si>
+  <si>
+    <t>Eukalyptusallee 15, 80683 München</t>
+  </si>
+  <si>
+    <t>46.png</t>
+  </si>
+  <si>
+    <t>Köhler</t>
+  </si>
+  <si>
+    <t>Sabrina</t>
+  </si>
+  <si>
+    <t>Ernährungsberaterin</t>
+  </si>
+  <si>
+    <t>Palmplatz 21, 80520 München</t>
+  </si>
+  <si>
+    <t>47.png</t>
+  </si>
+  <si>
+    <t>Berger</t>
+  </si>
+  <si>
+    <t>Andreas</t>
+  </si>
+  <si>
+    <t>Historiker</t>
+  </si>
+  <si>
+    <t>Lavendelweg 73, 80298 München</t>
+  </si>
+  <si>
+    <t>48.png</t>
+  </si>
+  <si>
+    <t>Klein</t>
+  </si>
+  <si>
+    <t>Verena</t>
+  </si>
+  <si>
+    <t>Immobilienberaterin</t>
+  </si>
+  <si>
+    <t>Kamillenplatz 68, 80901 München</t>
+  </si>
+  <si>
+    <t>49.png</t>
+  </si>
+  <si>
+    <t>Richter</t>
+  </si>
+  <si>
+    <t>Erik</t>
+  </si>
+  <si>
+    <t>Physiotherapeut</t>
+  </si>
+  <si>
+    <t>Jasminallee 99, 80772 München</t>
+  </si>
+  <si>
+    <t>50.png</t>
+  </si>
+  <si>
+    <t>Cockrich</t>
+  </si>
+  <si>
+    <t>Zirkusclown</t>
+  </si>
+  <si>
+    <t>Lümmelstraße 69</t>
+  </si>
+  <si>
+    <t>51.png</t>
+  </si>
+  <si>
+    <t>Leonie</t>
+  </si>
+  <si>
+    <t>Mohnstraße 10, 80264 München</t>
+  </si>
+  <si>
+    <t>52.png</t>
+  </si>
+  <si>
+    <t>Matthias</t>
+  </si>
+  <si>
+    <t>Journalist</t>
+  </si>
+  <si>
+    <t>Rosenweg 46, 80136 München</t>
+  </si>
+  <si>
+    <t>53.png</t>
+  </si>
+  <si>
+    <t>Christina</t>
+  </si>
+  <si>
+    <t>Chemikerin</t>
+  </si>
+  <si>
+    <t>Sonnenblumenplatz 98, 80350 München</t>
+  </si>
+  <si>
+    <t>54.png</t>
+  </si>
+  <si>
+    <t>Daniel</t>
+  </si>
+  <si>
+    <t>Veilchenallee 61, 80464 München</t>
+  </si>
+  <si>
+    <t>55.png</t>
+  </si>
+  <si>
+    <t>Jana</t>
+  </si>
+  <si>
+    <t>Biologiestudentin</t>
+  </si>
+  <si>
+    <t>Tulpenstraße 84, 80805 München</t>
+  </si>
+  <si>
+    <t>56.png</t>
+  </si>
+  <si>
+    <t>David</t>
+  </si>
+  <si>
+    <t>Primelallee 17, 80685 München</t>
+  </si>
+  <si>
+    <t>57.png</t>
+  </si>
+  <si>
+    <t>Ludwig</t>
+  </si>
+  <si>
+    <t>Elena</t>
+  </si>
+  <si>
+    <t>Lilienweg 23, 80522 München</t>
+  </si>
+  <si>
+    <t>58.png</t>
+  </si>
+  <si>
+    <t>Philipp</t>
+  </si>
+  <si>
+    <t>Nelkenplatz 75, 80290 München</t>
+  </si>
+  <si>
+    <t>59.png</t>
+  </si>
+  <si>
+    <t>Selina</t>
+  </si>
+  <si>
+    <t>Kosmeenstraße 70, 80903 München</t>
+  </si>
+  <si>
+    <t>60.png</t>
+  </si>
+  <si>
+    <t>Vogt</t>
+  </si>
+  <si>
+    <t>Sebastian</t>
+  </si>
+  <si>
+    <t>Tulpenallee 101, 80774 München</t>
+  </si>
+  <si>
+    <t>61.png</t>
+  </si>
+  <si>
+    <t>Schmitt</t>
+  </si>
+  <si>
+    <t>Architektin</t>
+  </si>
+  <si>
+    <t>Orchideenstraße 12, 80265 München</t>
+  </si>
+  <si>
+    <t>62.png</t>
+  </si>
+  <si>
+    <t>Nico</t>
+  </si>
+  <si>
+    <t>Sporttrainer</t>
+  </si>
+  <si>
+    <t>Rosenplatz 47, 80137 München</t>
+  </si>
+  <si>
+    <t>63.png</t>
+  </si>
+  <si>
+    <t>Katja</t>
+  </si>
+  <si>
+    <t>Geranienweg 99, 80351 München</t>
+  </si>
+  <si>
+    <t>64.png</t>
+  </si>
+  <si>
+    <t>Werner</t>
+  </si>
+  <si>
+    <t>Tim</t>
+  </si>
+  <si>
+    <t>Veilchenstraße 62, 80465 München</t>
+  </si>
+  <si>
+    <t>65.png</t>
+  </si>
+  <si>
+    <t>Narzissenplatz 85, 80806 München</t>
+  </si>
+  <si>
+    <t>66.png</t>
+  </si>
+  <si>
+    <t>Brandt</t>
+  </si>
+  <si>
+    <t>Automechaniker</t>
+  </si>
+  <si>
+    <t>Lilienweg 18, 80686 München</t>
+  </si>
+  <si>
+    <t>67.png</t>
+  </si>
+  <si>
+    <t>Marina</t>
+  </si>
+  <si>
+    <t>Sonnenblumenallee 24, 80523 München</t>
+  </si>
+  <si>
+    <t>68.png</t>
+  </si>
+  <si>
+    <t>Elektriker</t>
+  </si>
+  <si>
+    <t>Kosmeenplatz 76, 80291 München</t>
+  </si>
+  <si>
+    <t>69.png</t>
+  </si>
+  <si>
+    <t>Weiss</t>
+  </si>
+  <si>
+    <t>Daria</t>
+  </si>
+  <si>
+    <t>Floristin</t>
+  </si>
+  <si>
+    <t>Tulpenstraße 71, 80904 München</t>
+  </si>
+  <si>
+    <t>70.png</t>
+  </si>
+  <si>
+    <t>Bergmann</t>
+  </si>
+  <si>
+    <t>Till</t>
+  </si>
+  <si>
+    <t>Musiker</t>
+  </si>
+  <si>
+    <t>Magnolienallee 102, 80775 München</t>
+  </si>
+  <si>
+    <t>71.png</t>
+  </si>
+  <si>
+    <t>Sarah</t>
+  </si>
+  <si>
+    <t>Dahlienstraße 13, 80266 München</t>
+  </si>
+  <si>
+    <t>72.png</t>
+  </si>
+  <si>
+    <t>Jonas</t>
+  </si>
+  <si>
+    <t>Krokusplatz 48, 80138 München</t>
+  </si>
+  <si>
+    <t>73.png</t>
+  </si>
+  <si>
+    <t>Lisa</t>
+  </si>
+  <si>
+    <t>Tierärztin</t>
+  </si>
+  <si>
+    <t>Rosenallee 100, 80352 München</t>
+  </si>
+  <si>
+    <t>74.png</t>
+  </si>
+  <si>
+    <t>Florian</t>
+  </si>
+  <si>
+    <t>Auszubildender Elektroniker</t>
+  </si>
+  <si>
+    <t>Mohnstraße 63, 80466 München</t>
+  </si>
+  <si>
+    <t>75.png</t>
+  </si>
+  <si>
+    <t>Braun</t>
+  </si>
+  <si>
+    <t>Isabella</t>
+  </si>
+  <si>
+    <t>Psychologin</t>
+  </si>
+  <si>
+    <t>Veilchenplatz 86, 80807 München</t>
+  </si>
+  <si>
+    <t>76.png</t>
+  </si>
+  <si>
+    <t>Fuchs</t>
+  </si>
+  <si>
+    <t>Maurer</t>
+  </si>
+  <si>
+    <t>Geranienweg 19, 80687 München</t>
+  </si>
+  <si>
+    <t>77.png</t>
+  </si>
+  <si>
+    <t>Nina</t>
+  </si>
+  <si>
+    <t>Künstlerin</t>
+  </si>
+  <si>
+    <t>Lilienstraße 25, 80524 München</t>
+  </si>
+  <si>
+    <t>78.png</t>
+  </si>
+  <si>
+    <t>Mechaniker</t>
+  </si>
+  <si>
+    <t>Sonnenblumenplatz 77, 80292 München</t>
+  </si>
+  <si>
+    <t>79.png</t>
+  </si>
+  <si>
+    <t>Buchhändlerin</t>
+  </si>
+  <si>
+    <t>Tulpenweg 72, 80905 München</t>
+  </si>
+  <si>
+    <t>80.png</t>
+  </si>
+  <si>
+    <t>Peters</t>
+  </si>
+  <si>
+    <t>Kosmeenallee 103, 80776 München</t>
+  </si>
+  <si>
+    <t>81.png</t>
+  </si>
+  <si>
+    <t>Katharina</t>
+  </si>
+  <si>
+    <t>Azaleenstraße 14, 80267 München</t>
+  </si>
+  <si>
+    <t>82.png</t>
+  </si>
+  <si>
+    <t>Paul</t>
+  </si>
+  <si>
+    <t>Lavendelplatz 49, 80139 München</t>
+  </si>
+  <si>
+    <t>83.png</t>
+  </si>
+  <si>
+    <t>Kamillenallee 101, 80353 München</t>
+  </si>
+  <si>
+    <t>84.png</t>
+  </si>
+  <si>
+    <t>Marcus</t>
+  </si>
+  <si>
+    <t>Fotograf</t>
+  </si>
+  <si>
+    <t>Efeustraße 64, 80467 München</t>
+  </si>
+  <si>
+    <t>85.png</t>
+  </si>
+  <si>
+    <t>Laura</t>
+  </si>
+  <si>
+    <t>Hyazinthenplatz 87, 80808 München</t>
+  </si>
+  <si>
+    <t>86.png</t>
+  </si>
+  <si>
+    <t>Adrian</t>
+  </si>
+  <si>
+    <t>Gärtner</t>
+  </si>
+  <si>
+    <t>Kirschbaumweg 20, 80688 München</t>
+  </si>
+  <si>
+    <t>87.png</t>
+  </si>
+  <si>
+    <t>Anemonenstraße 26, 80525 München</t>
+  </si>
+  <si>
+    <t>88.png</t>
+  </si>
+  <si>
+    <t>Bauingenieur</t>
+  </si>
+  <si>
+    <t>Kaktusplatz 78, 80293 München</t>
+  </si>
+  <si>
+    <t>89.png</t>
+  </si>
+  <si>
+    <t>Krause</t>
+  </si>
+  <si>
+    <t>Isabel</t>
+  </si>
+  <si>
+    <t>Tänzerin</t>
+  </si>
+  <si>
+    <t>Asternweg 73, 80906 München</t>
+  </si>
+  <si>
+    <t>90.png</t>
+  </si>
+  <si>
+    <t>Dominik</t>
+  </si>
+  <si>
+    <t>Dahlienallee 104, 80777 München</t>
+  </si>
+  <si>
+    <t>91.png</t>
+  </si>
+  <si>
+    <t>Lange</t>
+  </si>
+  <si>
+    <t>Margeritenstraße 15, 80268 München</t>
+  </si>
+  <si>
+    <t>92.png</t>
+  </si>
+  <si>
+    <t>#D290000FZ34</t>
+  </si>
+  <si>
+    <t>Achleitner</t>
+  </si>
+  <si>
+    <t>Hagen</t>
+  </si>
+  <si>
+    <t>Chemieproduzent</t>
+  </si>
+  <si>
+    <t>Paulusweg 5, 80940 München</t>
+  </si>
+  <si>
+    <t>169.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -656,9 +1311,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -973,10 +1629,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC1786A1-8B69-4794-BF1C-9A89E428DA95}">
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:I94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I37"/>
+    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="E99" sqref="E99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2054,6 +2710,1659 @@
         <v>194</v>
       </c>
     </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>65</v>
+      </c>
+      <c r="C38" t="s">
+        <v>195</v>
+      </c>
+      <c r="D38" s="1">
+        <v>34542</v>
+      </c>
+      <c r="E38" t="s">
+        <v>196</v>
+      </c>
+      <c r="F38" t="s">
+        <v>24</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38" t="s">
+        <v>197</v>
+      </c>
+      <c r="I38" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" t="s">
+        <v>47</v>
+      </c>
+      <c r="D39" s="1">
+        <v>23233</v>
+      </c>
+      <c r="E39" t="s">
+        <v>199</v>
+      </c>
+      <c r="F39" t="s">
+        <v>79</v>
+      </c>
+      <c r="G39">
+        <v>2</v>
+      </c>
+      <c r="H39" t="s">
+        <v>200</v>
+      </c>
+      <c r="I39" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>39</v>
+      </c>
+      <c r="C40" t="s">
+        <v>202</v>
+      </c>
+      <c r="D40" s="1">
+        <v>31305</v>
+      </c>
+      <c r="E40" t="s">
+        <v>203</v>
+      </c>
+      <c r="F40" t="s">
+        <v>36</v>
+      </c>
+      <c r="G40" t="s">
+        <v>43</v>
+      </c>
+      <c r="H40" t="s">
+        <v>204</v>
+      </c>
+      <c r="I40" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>206</v>
+      </c>
+      <c r="C41" t="s">
+        <v>207</v>
+      </c>
+      <c r="D41" s="1">
+        <v>37187</v>
+      </c>
+      <c r="E41" t="s">
+        <v>208</v>
+      </c>
+      <c r="F41" t="s">
+        <v>49</v>
+      </c>
+      <c r="G41" t="s">
+        <v>56</v>
+      </c>
+      <c r="H41" t="s">
+        <v>209</v>
+      </c>
+      <c r="I41" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>211</v>
+      </c>
+      <c r="C42" t="s">
+        <v>212</v>
+      </c>
+      <c r="D42" s="1">
+        <v>29164</v>
+      </c>
+      <c r="E42" t="s">
+        <v>213</v>
+      </c>
+      <c r="F42" t="s">
+        <v>36</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42" t="s">
+        <v>214</v>
+      </c>
+      <c r="I42" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>15</v>
+      </c>
+      <c r="C43" t="s">
+        <v>216</v>
+      </c>
+      <c r="D43" s="1">
+        <v>31760</v>
+      </c>
+      <c r="E43" t="s">
+        <v>89</v>
+      </c>
+      <c r="F43" t="s">
+        <v>62</v>
+      </c>
+      <c r="G43">
+        <v>2</v>
+      </c>
+      <c r="H43" t="s">
+        <v>217</v>
+      </c>
+      <c r="I43" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>219</v>
+      </c>
+      <c r="C44" t="s">
+        <v>220</v>
+      </c>
+      <c r="D44" s="1">
+        <v>36547</v>
+      </c>
+      <c r="E44" t="s">
+        <v>221</v>
+      </c>
+      <c r="F44" t="s">
+        <v>18</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="H44" t="s">
+        <v>222</v>
+      </c>
+      <c r="I44" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>224</v>
+      </c>
+      <c r="C45" t="s">
+        <v>225</v>
+      </c>
+      <c r="D45" s="1">
+        <v>24879</v>
+      </c>
+      <c r="E45" t="s">
+        <v>226</v>
+      </c>
+      <c r="F45" t="s">
+        <v>30</v>
+      </c>
+      <c r="G45">
+        <v>3</v>
+      </c>
+      <c r="H45" t="s">
+        <v>227</v>
+      </c>
+      <c r="I45" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46" t="s">
+        <v>229</v>
+      </c>
+      <c r="D46" s="1">
+        <v>35493</v>
+      </c>
+      <c r="E46" t="s">
+        <v>230</v>
+      </c>
+      <c r="F46" t="s">
+        <v>90</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+      <c r="H46" t="s">
+        <v>231</v>
+      </c>
+      <c r="I46" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>233</v>
+      </c>
+      <c r="C47" t="s">
+        <v>234</v>
+      </c>
+      <c r="D47" s="1">
+        <v>26406</v>
+      </c>
+      <c r="E47" t="s">
+        <v>235</v>
+      </c>
+      <c r="F47" t="s">
+        <v>55</v>
+      </c>
+      <c r="G47">
+        <v>5</v>
+      </c>
+      <c r="H47" t="s">
+        <v>236</v>
+      </c>
+      <c r="I47" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>238</v>
+      </c>
+      <c r="C48" t="s">
+        <v>239</v>
+      </c>
+      <c r="D48" s="1">
+        <v>30099</v>
+      </c>
+      <c r="E48" t="s">
+        <v>240</v>
+      </c>
+      <c r="F48" t="s">
+        <v>24</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+      <c r="H48" t="s">
+        <v>241</v>
+      </c>
+      <c r="I48" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>243</v>
+      </c>
+      <c r="C49" t="s">
+        <v>244</v>
+      </c>
+      <c r="D49" s="1">
+        <v>21710</v>
+      </c>
+      <c r="E49" t="s">
+        <v>245</v>
+      </c>
+      <c r="F49" t="s">
+        <v>79</v>
+      </c>
+      <c r="G49">
+        <v>2</v>
+      </c>
+      <c r="H49" t="s">
+        <v>246</v>
+      </c>
+      <c r="I49" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>248</v>
+      </c>
+      <c r="C50" t="s">
+        <v>249</v>
+      </c>
+      <c r="D50" s="1">
+        <v>34166</v>
+      </c>
+      <c r="E50" t="s">
+        <v>250</v>
+      </c>
+      <c r="F50" t="s">
+        <v>49</v>
+      </c>
+      <c r="G50" t="s">
+        <v>43</v>
+      </c>
+      <c r="H50" t="s">
+        <v>251</v>
+      </c>
+      <c r="I50" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>253</v>
+      </c>
+      <c r="C51" t="s">
+        <v>254</v>
+      </c>
+      <c r="D51" s="1">
+        <v>32014</v>
+      </c>
+      <c r="E51" t="s">
+        <v>255</v>
+      </c>
+      <c r="F51" t="s">
+        <v>36</v>
+      </c>
+      <c r="G51" t="s">
+        <v>56</v>
+      </c>
+      <c r="H51" t="s">
+        <v>256</v>
+      </c>
+      <c r="I51" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>258</v>
+      </c>
+      <c r="C52" t="s">
+        <v>10</v>
+      </c>
+      <c r="D52" s="1">
+        <v>32588</v>
+      </c>
+      <c r="E52" t="s">
+        <v>259</v>
+      </c>
+      <c r="F52" t="s">
+        <v>62</v>
+      </c>
+      <c r="G52" t="s">
+        <v>56</v>
+      </c>
+      <c r="H52" t="s">
+        <v>260</v>
+      </c>
+      <c r="I52" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>52</v>
+      </c>
+      <c r="C53" t="s">
+        <v>262</v>
+      </c>
+      <c r="D53" s="1">
+        <v>35261</v>
+      </c>
+      <c r="E53" t="s">
+        <v>104</v>
+      </c>
+      <c r="F53" t="s">
+        <v>79</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
+      <c r="H53" t="s">
+        <v>263</v>
+      </c>
+      <c r="I53" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>21</v>
+      </c>
+      <c r="C54" t="s">
+        <v>265</v>
+      </c>
+      <c r="D54" s="1">
+        <v>29457</v>
+      </c>
+      <c r="E54" t="s">
+        <v>266</v>
+      </c>
+      <c r="F54" t="s">
+        <v>36</v>
+      </c>
+      <c r="G54">
+        <v>2</v>
+      </c>
+      <c r="H54" t="s">
+        <v>267</v>
+      </c>
+      <c r="I54" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>9</v>
+      </c>
+      <c r="C55" t="s">
+        <v>269</v>
+      </c>
+      <c r="D55" s="1">
+        <v>27638</v>
+      </c>
+      <c r="E55" t="s">
+        <v>270</v>
+      </c>
+      <c r="F55" t="s">
+        <v>30</v>
+      </c>
+      <c r="G55">
+        <v>1</v>
+      </c>
+      <c r="H55" t="s">
+        <v>271</v>
+      </c>
+      <c r="I55" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>39</v>
+      </c>
+      <c r="C56" t="s">
+        <v>273</v>
+      </c>
+      <c r="D56" s="1">
+        <v>31331</v>
+      </c>
+      <c r="E56" t="s">
+        <v>168</v>
+      </c>
+      <c r="F56" t="s">
+        <v>90</v>
+      </c>
+      <c r="G56">
+        <v>3</v>
+      </c>
+      <c r="H56" t="s">
+        <v>274</v>
+      </c>
+      <c r="I56" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>127</v>
+      </c>
+      <c r="C57" t="s">
+        <v>276</v>
+      </c>
+      <c r="D57" s="1">
+        <v>37565</v>
+      </c>
+      <c r="E57" t="s">
+        <v>277</v>
+      </c>
+      <c r="F57" t="s">
+        <v>18</v>
+      </c>
+      <c r="G57">
+        <v>1</v>
+      </c>
+      <c r="H57" t="s">
+        <v>278</v>
+      </c>
+      <c r="I57" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>175</v>
+      </c>
+      <c r="C58" t="s">
+        <v>280</v>
+      </c>
+      <c r="D58" s="1">
+        <v>25921</v>
+      </c>
+      <c r="E58" t="s">
+        <v>99</v>
+      </c>
+      <c r="F58" t="s">
+        <v>62</v>
+      </c>
+      <c r="G58">
+        <v>4</v>
+      </c>
+      <c r="H58" t="s">
+        <v>281</v>
+      </c>
+      <c r="I58" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>283</v>
+      </c>
+      <c r="C59" t="s">
+        <v>284</v>
+      </c>
+      <c r="D59" s="1">
+        <v>32903</v>
+      </c>
+      <c r="E59" t="s">
+        <v>203</v>
+      </c>
+      <c r="F59" t="s">
+        <v>55</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
+      <c r="H59" t="s">
+        <v>285</v>
+      </c>
+      <c r="I59" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>122</v>
+      </c>
+      <c r="C60" t="s">
+        <v>287</v>
+      </c>
+      <c r="D60" s="1">
+        <v>20128</v>
+      </c>
+      <c r="E60" t="s">
+        <v>35</v>
+      </c>
+      <c r="F60" t="s">
+        <v>24</v>
+      </c>
+      <c r="G60">
+        <v>2</v>
+      </c>
+      <c r="H60" t="s">
+        <v>288</v>
+      </c>
+      <c r="I60" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>59</v>
+      </c>
+      <c r="C61" t="s">
+        <v>290</v>
+      </c>
+      <c r="D61" s="1">
+        <v>34410</v>
+      </c>
+      <c r="E61" t="s">
+        <v>109</v>
+      </c>
+      <c r="F61" t="s">
+        <v>49</v>
+      </c>
+      <c r="G61" t="s">
+        <v>43</v>
+      </c>
+      <c r="H61" t="s">
+        <v>291</v>
+      </c>
+      <c r="I61" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>293</v>
+      </c>
+      <c r="C62" t="s">
+        <v>294</v>
+      </c>
+      <c r="D62" s="1">
+        <v>32260</v>
+      </c>
+      <c r="E62" t="s">
+        <v>11</v>
+      </c>
+      <c r="F62" t="s">
+        <v>79</v>
+      </c>
+      <c r="G62" t="s">
+        <v>56</v>
+      </c>
+      <c r="H62" t="s">
+        <v>295</v>
+      </c>
+      <c r="I62" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>297</v>
+      </c>
+      <c r="C63" t="s">
+        <v>16</v>
+      </c>
+      <c r="D63" s="1">
+        <v>31903</v>
+      </c>
+      <c r="E63" t="s">
+        <v>298</v>
+      </c>
+      <c r="F63" t="s">
+        <v>36</v>
+      </c>
+      <c r="G63">
+        <v>5</v>
+      </c>
+      <c r="H63" t="s">
+        <v>299</v>
+      </c>
+      <c r="I63" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>248</v>
+      </c>
+      <c r="C64" t="s">
+        <v>301</v>
+      </c>
+      <c r="D64" s="1">
+        <v>33404</v>
+      </c>
+      <c r="E64" t="s">
+        <v>302</v>
+      </c>
+      <c r="F64" t="s">
+        <v>79</v>
+      </c>
+      <c r="G64">
+        <v>2</v>
+      </c>
+      <c r="H64" t="s">
+        <v>303</v>
+      </c>
+      <c r="I64" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>253</v>
+      </c>
+      <c r="C65" t="s">
+        <v>305</v>
+      </c>
+      <c r="D65" s="1">
+        <v>29059</v>
+      </c>
+      <c r="E65" t="s">
+        <v>240</v>
+      </c>
+      <c r="F65" t="s">
+        <v>24</v>
+      </c>
+      <c r="G65">
+        <v>1</v>
+      </c>
+      <c r="H65" t="s">
+        <v>306</v>
+      </c>
+      <c r="I65" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>308</v>
+      </c>
+      <c r="C66" t="s">
+        <v>309</v>
+      </c>
+      <c r="D66" s="1">
+        <v>37470</v>
+      </c>
+      <c r="E66" t="s">
+        <v>23</v>
+      </c>
+      <c r="F66" t="s">
+        <v>18</v>
+      </c>
+      <c r="G66">
+        <v>3</v>
+      </c>
+      <c r="H66" t="s">
+        <v>310</v>
+      </c>
+      <c r="I66" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>219</v>
+      </c>
+      <c r="C67" t="s">
+        <v>40</v>
+      </c>
+      <c r="D67" s="1">
+        <v>34588</v>
+      </c>
+      <c r="E67" t="s">
+        <v>230</v>
+      </c>
+      <c r="F67" t="s">
+        <v>55</v>
+      </c>
+      <c r="G67">
+        <v>1</v>
+      </c>
+      <c r="H67" t="s">
+        <v>312</v>
+      </c>
+      <c r="I67" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>314</v>
+      </c>
+      <c r="C68" t="s">
+        <v>138</v>
+      </c>
+      <c r="D68" s="1">
+        <v>25131</v>
+      </c>
+      <c r="E68" t="s">
+        <v>315</v>
+      </c>
+      <c r="F68" t="s">
+        <v>30</v>
+      </c>
+      <c r="G68">
+        <v>4</v>
+      </c>
+      <c r="H68" t="s">
+        <v>316</v>
+      </c>
+      <c r="I68" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>243</v>
+      </c>
+      <c r="C69" t="s">
+        <v>318</v>
+      </c>
+      <c r="D69" s="1">
+        <v>29555</v>
+      </c>
+      <c r="E69" t="s">
+        <v>213</v>
+      </c>
+      <c r="F69" t="s">
+        <v>62</v>
+      </c>
+      <c r="G69">
+        <v>1</v>
+      </c>
+      <c r="H69" t="s">
+        <v>319</v>
+      </c>
+      <c r="I69" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>184</v>
+      </c>
+      <c r="C70" t="s">
+        <v>216</v>
+      </c>
+      <c r="D70" s="1">
+        <v>28468</v>
+      </c>
+      <c r="E70" t="s">
+        <v>321</v>
+      </c>
+      <c r="F70" t="s">
+        <v>49</v>
+      </c>
+      <c r="G70">
+        <v>2</v>
+      </c>
+      <c r="H70" t="s">
+        <v>322</v>
+      </c>
+      <c r="I70" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>324</v>
+      </c>
+      <c r="C71" t="s">
+        <v>325</v>
+      </c>
+      <c r="D71" s="1">
+        <v>36544</v>
+      </c>
+      <c r="E71" t="s">
+        <v>326</v>
+      </c>
+      <c r="F71" t="s">
+        <v>90</v>
+      </c>
+      <c r="G71" t="s">
+        <v>43</v>
+      </c>
+      <c r="H71" t="s">
+        <v>327</v>
+      </c>
+      <c r="I71" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>329</v>
+      </c>
+      <c r="C72" t="s">
+        <v>330</v>
+      </c>
+      <c r="D72" s="1">
+        <v>31471</v>
+      </c>
+      <c r="E72" t="s">
+        <v>331</v>
+      </c>
+      <c r="F72" t="s">
+        <v>36</v>
+      </c>
+      <c r="G72" t="s">
+        <v>56</v>
+      </c>
+      <c r="H72" t="s">
+        <v>332</v>
+      </c>
+      <c r="I72" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>211</v>
+      </c>
+      <c r="C73" t="s">
+        <v>334</v>
+      </c>
+      <c r="D73" s="1">
+        <v>30017</v>
+      </c>
+      <c r="E73" t="s">
+        <v>29</v>
+      </c>
+      <c r="F73" t="s">
+        <v>18</v>
+      </c>
+      <c r="G73">
+        <v>1</v>
+      </c>
+      <c r="H73" t="s">
+        <v>335</v>
+      </c>
+      <c r="I73" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>27</v>
+      </c>
+      <c r="C74" t="s">
+        <v>337</v>
+      </c>
+      <c r="D74" s="1">
+        <v>34805</v>
+      </c>
+      <c r="E74" t="s">
+        <v>158</v>
+      </c>
+      <c r="F74" t="s">
+        <v>79</v>
+      </c>
+      <c r="G74">
+        <v>2</v>
+      </c>
+      <c r="H74" t="s">
+        <v>338</v>
+      </c>
+      <c r="I74" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>238</v>
+      </c>
+      <c r="C75" t="s">
+        <v>340</v>
+      </c>
+      <c r="D75" s="1">
+        <v>28636</v>
+      </c>
+      <c r="E75" t="s">
+        <v>341</v>
+      </c>
+      <c r="F75" t="s">
+        <v>30</v>
+      </c>
+      <c r="G75">
+        <v>1</v>
+      </c>
+      <c r="H75" t="s">
+        <v>342</v>
+      </c>
+      <c r="I75" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>147</v>
+      </c>
+      <c r="C76" t="s">
+        <v>344</v>
+      </c>
+      <c r="D76" s="1">
+        <v>37046</v>
+      </c>
+      <c r="E76" t="s">
+        <v>345</v>
+      </c>
+      <c r="F76" t="s">
+        <v>90</v>
+      </c>
+      <c r="G76">
+        <v>3</v>
+      </c>
+      <c r="H76" t="s">
+        <v>346</v>
+      </c>
+      <c r="I76" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>348</v>
+      </c>
+      <c r="C77" t="s">
+        <v>349</v>
+      </c>
+      <c r="D77" s="1">
+        <v>34164</v>
+      </c>
+      <c r="E77" t="s">
+        <v>350</v>
+      </c>
+      <c r="F77" t="s">
+        <v>24</v>
+      </c>
+      <c r="G77">
+        <v>1</v>
+      </c>
+      <c r="H77" t="s">
+        <v>351</v>
+      </c>
+      <c r="I77" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>353</v>
+      </c>
+      <c r="C78" t="s">
+        <v>148</v>
+      </c>
+      <c r="D78" s="1">
+        <v>25438</v>
+      </c>
+      <c r="E78" t="s">
+        <v>354</v>
+      </c>
+      <c r="F78" t="s">
+        <v>62</v>
+      </c>
+      <c r="G78">
+        <v>4</v>
+      </c>
+      <c r="H78" t="s">
+        <v>355</v>
+      </c>
+      <c r="I78" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>46</v>
+      </c>
+      <c r="C79" t="s">
+        <v>357</v>
+      </c>
+      <c r="D79" s="1">
+        <v>29831</v>
+      </c>
+      <c r="E79" t="s">
+        <v>358</v>
+      </c>
+      <c r="F79" t="s">
+        <v>36</v>
+      </c>
+      <c r="G79">
+        <v>1</v>
+      </c>
+      <c r="H79" t="s">
+        <v>359</v>
+      </c>
+      <c r="I79" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>33</v>
+      </c>
+      <c r="C80" t="s">
+        <v>157</v>
+      </c>
+      <c r="D80" s="1">
+        <v>28044</v>
+      </c>
+      <c r="E80" t="s">
+        <v>361</v>
+      </c>
+      <c r="F80" t="s">
+        <v>49</v>
+      </c>
+      <c r="G80">
+        <v>2</v>
+      </c>
+      <c r="H80" t="s">
+        <v>362</v>
+      </c>
+      <c r="I80" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>65</v>
+      </c>
+      <c r="C81" t="s">
+        <v>152</v>
+      </c>
+      <c r="D81" s="1">
+        <v>36120</v>
+      </c>
+      <c r="E81" t="s">
+        <v>364</v>
+      </c>
+      <c r="F81" t="s">
+        <v>55</v>
+      </c>
+      <c r="G81" t="s">
+        <v>43</v>
+      </c>
+      <c r="H81" t="s">
+        <v>365</v>
+      </c>
+      <c r="I81" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>367</v>
+      </c>
+      <c r="C82" t="s">
+        <v>10</v>
+      </c>
+      <c r="D82" s="1">
+        <v>32843</v>
+      </c>
+      <c r="E82" t="s">
+        <v>199</v>
+      </c>
+      <c r="F82" t="s">
+        <v>18</v>
+      </c>
+      <c r="G82" t="s">
+        <v>56</v>
+      </c>
+      <c r="H82" t="s">
+        <v>368</v>
+      </c>
+      <c r="I82" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>9</v>
+      </c>
+      <c r="C83" t="s">
+        <v>370</v>
+      </c>
+      <c r="D83" s="1">
+        <v>32883</v>
+      </c>
+      <c r="E83" t="s">
+        <v>163</v>
+      </c>
+      <c r="F83" t="s">
+        <v>79</v>
+      </c>
+      <c r="G83">
+        <v>1</v>
+      </c>
+      <c r="H83" t="s">
+        <v>371</v>
+      </c>
+      <c r="I83" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>59</v>
+      </c>
+      <c r="C84" t="s">
+        <v>373</v>
+      </c>
+      <c r="D84" s="1">
+        <v>32192</v>
+      </c>
+      <c r="E84" t="s">
+        <v>185</v>
+      </c>
+      <c r="F84" t="s">
+        <v>36</v>
+      </c>
+      <c r="G84">
+        <v>2</v>
+      </c>
+      <c r="H84" t="s">
+        <v>374</v>
+      </c>
+      <c r="I84" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>52</v>
+      </c>
+      <c r="C85" t="s">
+        <v>229</v>
+      </c>
+      <c r="D85" s="1">
+        <v>29309</v>
+      </c>
+      <c r="E85" t="s">
+        <v>17</v>
+      </c>
+      <c r="F85" t="s">
+        <v>90</v>
+      </c>
+      <c r="G85">
+        <v>1</v>
+      </c>
+      <c r="H85" t="s">
+        <v>376</v>
+      </c>
+      <c r="I85" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>21</v>
+      </c>
+      <c r="C86" t="s">
+        <v>378</v>
+      </c>
+      <c r="D86" s="1">
+        <v>37717</v>
+      </c>
+      <c r="E86" t="s">
+        <v>379</v>
+      </c>
+      <c r="F86" t="s">
+        <v>24</v>
+      </c>
+      <c r="G86">
+        <v>3</v>
+      </c>
+      <c r="H86" t="s">
+        <v>380</v>
+      </c>
+      <c r="I86" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>27</v>
+      </c>
+      <c r="C87" t="s">
+        <v>382</v>
+      </c>
+      <c r="D87" s="1">
+        <v>35200</v>
+      </c>
+      <c r="E87" t="s">
+        <v>94</v>
+      </c>
+      <c r="F87" t="s">
+        <v>30</v>
+      </c>
+      <c r="G87">
+        <v>1</v>
+      </c>
+      <c r="H87" t="s">
+        <v>383</v>
+      </c>
+      <c r="I87" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>33</v>
+      </c>
+      <c r="C88" t="s">
+        <v>385</v>
+      </c>
+      <c r="D88" s="1">
+        <v>25744</v>
+      </c>
+      <c r="E88" t="s">
+        <v>386</v>
+      </c>
+      <c r="F88" t="s">
+        <v>62</v>
+      </c>
+      <c r="G88">
+        <v>4</v>
+      </c>
+      <c r="H88" t="s">
+        <v>387</v>
+      </c>
+      <c r="I88" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" t="s">
+        <v>39</v>
+      </c>
+      <c r="C89" t="s">
+        <v>133</v>
+      </c>
+      <c r="D89" s="1">
+        <v>30135</v>
+      </c>
+      <c r="E89" t="s">
+        <v>181</v>
+      </c>
+      <c r="F89" t="s">
+        <v>18</v>
+      </c>
+      <c r="G89">
+        <v>1</v>
+      </c>
+      <c r="H89" t="s">
+        <v>389</v>
+      </c>
+      <c r="I89" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" t="s">
+        <v>127</v>
+      </c>
+      <c r="C90" t="s">
+        <v>254</v>
+      </c>
+      <c r="D90" s="1">
+        <v>27618</v>
+      </c>
+      <c r="E90" t="s">
+        <v>391</v>
+      </c>
+      <c r="F90" t="s">
+        <v>49</v>
+      </c>
+      <c r="G90">
+        <v>2</v>
+      </c>
+      <c r="H90" t="s">
+        <v>392</v>
+      </c>
+      <c r="I90" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" t="s">
+        <v>394</v>
+      </c>
+      <c r="C91" t="s">
+        <v>395</v>
+      </c>
+      <c r="D91" s="1">
+        <v>36425</v>
+      </c>
+      <c r="E91" t="s">
+        <v>396</v>
+      </c>
+      <c r="F91" t="s">
+        <v>55</v>
+      </c>
+      <c r="G91" t="s">
+        <v>43</v>
+      </c>
+      <c r="H91" t="s">
+        <v>397</v>
+      </c>
+      <c r="I91" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>65</v>
+      </c>
+      <c r="C92" t="s">
+        <v>399</v>
+      </c>
+      <c r="D92" s="1">
+        <v>33541</v>
+      </c>
+      <c r="E92" t="s">
+        <v>61</v>
+      </c>
+      <c r="F92" t="s">
+        <v>36</v>
+      </c>
+      <c r="G92" t="s">
+        <v>56</v>
+      </c>
+      <c r="H92" t="s">
+        <v>400</v>
+      </c>
+      <c r="I92" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>402</v>
+      </c>
+      <c r="C93" t="s">
+        <v>176</v>
+      </c>
+      <c r="D93" s="1">
+        <v>31048</v>
+      </c>
+      <c r="E93" t="s">
+        <v>89</v>
+      </c>
+      <c r="F93" t="s">
+        <v>90</v>
+      </c>
+      <c r="G93">
+        <v>1</v>
+      </c>
+      <c r="H93" t="s">
+        <v>403</v>
+      </c>
+      <c r="I93" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A94" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="B94" t="s">
+        <v>406</v>
+      </c>
+      <c r="C94" t="s">
+        <v>407</v>
+      </c>
+      <c r="D94" s="1">
+        <v>29800</v>
+      </c>
+      <c r="E94" t="s">
+        <v>408</v>
+      </c>
+      <c r="F94" t="s">
+        <v>49</v>
+      </c>
+      <c r="G94" t="s">
+        <v>56</v>
+      </c>
+      <c r="H94" t="s">
+        <v>409</v>
+      </c>
+      <c r="I94" t="s">
+        <v>410</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Kartei.xlsx
+++ b/Kartei.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4ec4a8a11e8d582b/Desktop/Kartei/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{02B4305B-4F4D-46E2-9FB4-462BD32138B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9478DDE5-B837-4EF9-A892-4DFDAEC21D55}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{02B4305B-4F4D-46E2-9FB4-462BD32138B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{30D1BC6F-89FD-4281-848D-DC13A6E2F208}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{67EA128D-3B4B-47B1-BE1B-CDD57181D158}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1272" uniqueCount="880">
   <si>
     <t>Kennziffer</t>
   </si>
@@ -1269,6 +1269,1413 @@
   </si>
   <si>
     <t>169.png</t>
+  </si>
+  <si>
+    <t>#Q910000EZ13</t>
+  </si>
+  <si>
+    <t>#Y310000VO47</t>
+  </si>
+  <si>
+    <t>#J750000TD60</t>
+  </si>
+  <si>
+    <t>#A540000YH08</t>
+  </si>
+  <si>
+    <t>#M630000DL15</t>
+  </si>
+  <si>
+    <t>#T660000QP91</t>
+  </si>
+  <si>
+    <t>#F260000LJ73</t>
+  </si>
+  <si>
+    <t>#H850000ME58</t>
+  </si>
+  <si>
+    <t>#O280000FS45</t>
+  </si>
+  <si>
+    <t>#S120000HP20</t>
+  </si>
+  <si>
+    <t>#X780000UZ85</t>
+  </si>
+  <si>
+    <t>#B910000CN27</t>
+  </si>
+  <si>
+    <t>#R260000YK37</t>
+  </si>
+  <si>
+    <t>#L360000RE52</t>
+  </si>
+  <si>
+    <t>#D830000PT93</t>
+  </si>
+  <si>
+    <t>#Z040000HI51</t>
+  </si>
+  <si>
+    <t>#E190000GA56</t>
+  </si>
+  <si>
+    <t>#U220000BT43</t>
+  </si>
+  <si>
+    <t>#I250000VC68</t>
+  </si>
+  <si>
+    <t>#N680000RZ31</t>
+  </si>
+  <si>
+    <t>#C590000WO76</t>
+  </si>
+  <si>
+    <t>#W670000XK60</t>
+  </si>
+  <si>
+    <t>#G340000PK12</t>
+  </si>
+  <si>
+    <t>#Y810000SO99</t>
+  </si>
+  <si>
+    <t>#V720000LQ05</t>
+  </si>
+  <si>
+    <t>#P230000ZA16</t>
+  </si>
+  <si>
+    <t>#O940000HV30</t>
+  </si>
+  <si>
+    <t>#K870000JC42</t>
+  </si>
+  <si>
+    <t>#E470000UN53</t>
+  </si>
+  <si>
+    <t>#F790000DY28</t>
+  </si>
+  <si>
+    <t>#L520000TB35</t>
+  </si>
+  <si>
+    <t>#G300000QA10</t>
+  </si>
+  <si>
+    <t>#M450000XO49</t>
+  </si>
+  <si>
+    <t>#B180000JZ65</t>
+  </si>
+  <si>
+    <t>#Z950000WK08</t>
+  </si>
+  <si>
+    <t>#R580000NF23</t>
+  </si>
+  <si>
+    <t>#H100000IG79</t>
+  </si>
+  <si>
+    <t>#U560000DV14</t>
+  </si>
+  <si>
+    <t>#A710000YS06</t>
+  </si>
+  <si>
+    <t>#S380000PL21</t>
+  </si>
+  <si>
+    <t>#Q480000CJ64</t>
+  </si>
+  <si>
+    <t>#D670000BG45</t>
+  </si>
+  <si>
+    <t>#N340000TX82</t>
+  </si>
+  <si>
+    <t>#J420000RM53</t>
+  </si>
+  <si>
+    <t>#V100000OH19</t>
+  </si>
+  <si>
+    <t>#C850000LW60</t>
+  </si>
+  <si>
+    <t>#I730000FU38</t>
+  </si>
+  <si>
+    <t>#P060000HZ71</t>
+  </si>
+  <si>
+    <t>#K290000YE84</t>
+  </si>
+  <si>
+    <t>#W580000VD27</t>
+  </si>
+  <si>
+    <t>#F410000JG14</t>
+  </si>
+  <si>
+    <t>#Z160000AM35</t>
+  </si>
+  <si>
+    <t>#B230000OU50</t>
+  </si>
+  <si>
+    <t>#Y500000ZK82</t>
+  </si>
+  <si>
+    <t>#G750000HW03</t>
+  </si>
+  <si>
+    <t>#M900000IB37</t>
+  </si>
+  <si>
+    <t>#L280000PA94</t>
+  </si>
+  <si>
+    <t>#R620000NG49</t>
+  </si>
+  <si>
+    <t>#T310000FY26</t>
+  </si>
+  <si>
+    <t>#E040000MB83</t>
+  </si>
+  <si>
+    <t>#J970000VL51</t>
+  </si>
+  <si>
+    <t>#V190000CR64</t>
+  </si>
+  <si>
+    <t>#O800000BU13</t>
+  </si>
+  <si>
+    <t>#X430000KT25</t>
+  </si>
+  <si>
+    <t>#H580000IE98</t>
+  </si>
+  <si>
+    <t>#N210000XH70</t>
+  </si>
+  <si>
+    <t>#A390000CZ58</t>
+  </si>
+  <si>
+    <t>#Q720000RD24</t>
+  </si>
+  <si>
+    <t>#U670000SV10</t>
+  </si>
+  <si>
+    <t>#S490000PW82</t>
+  </si>
+  <si>
+    <t>#I100000GA35</t>
+  </si>
+  <si>
+    <t>#D440000JM67</t>
+  </si>
+  <si>
+    <t>#Z790000LN20</t>
+  </si>
+  <si>
+    <t>#G220000OX51</t>
+  </si>
+  <si>
+    <t>#W340000ZT68</t>
+  </si>
+  <si>
+    <t>#K560000BF09</t>
+  </si>
+  <si>
+    <t>#P810000UJ42</t>
+  </si>
+  <si>
+    <t>#T390000YA73</t>
+  </si>
+  <si>
+    <t>#R540000QU18</t>
+  </si>
+  <si>
+    <t>#J680000WE95</t>
+  </si>
+  <si>
+    <t>#L110000SZ60</t>
+  </si>
+  <si>
+    <t>#X900000DV31</t>
+  </si>
+  <si>
+    <t>#N070000PO46</t>
+  </si>
+  <si>
+    <t>#C840000YX15</t>
+  </si>
+  <si>
+    <t>#B600000KR27</t>
+  </si>
+  <si>
+    <t>#V450000TG89</t>
+  </si>
+  <si>
+    <t>#F100000LH54</t>
+  </si>
+  <si>
+    <t>#H720000UX17</t>
+  </si>
+  <si>
+    <t>#S370000ZA90</t>
+  </si>
+  <si>
+    <t>#E820000WT43</t>
+  </si>
+  <si>
+    <t>#I550000BC62</t>
+  </si>
+  <si>
+    <t>#Z280000DN24</t>
+  </si>
+  <si>
+    <t>#Y630000JE79</t>
+  </si>
+  <si>
+    <t>Carla</t>
+  </si>
+  <si>
+    <t>Tulpenplatz 50, 80140 München</t>
+  </si>
+  <si>
+    <t>93.png</t>
+  </si>
+  <si>
+    <t>#Q020000MV14</t>
+  </si>
+  <si>
+    <t>Simon</t>
+  </si>
+  <si>
+    <t>Polizist</t>
+  </si>
+  <si>
+    <t>Farnallee 102, 80354 München</t>
+  </si>
+  <si>
+    <t>94.png</t>
+  </si>
+  <si>
+    <t>#M770000FU50</t>
+  </si>
+  <si>
+    <t>Nadine</t>
+  </si>
+  <si>
+    <t>Kamillenstraße 65, 80468 München</t>
+  </si>
+  <si>
+    <t>95.png</t>
+  </si>
+  <si>
+    <t>#A340000WB83</t>
+  </si>
+  <si>
+    <t>Anwalt</t>
+  </si>
+  <si>
+    <t>Glockenblumenplatz 88, 80809 München</t>
+  </si>
+  <si>
+    <t>96.png</t>
+  </si>
+  <si>
+    <t>#D910000IQ65</t>
+  </si>
+  <si>
+    <t>Rebecca</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Roseweg 21, 80689 München</t>
+  </si>
+  <si>
+    <t>97.png</t>
+  </si>
+  <si>
+    <t>#R240000VG36</t>
+  </si>
+  <si>
+    <t>Gänseblümchenstraße 27, 80526 München</t>
+  </si>
+  <si>
+    <t>98.png</t>
+  </si>
+  <si>
+    <t>#O390000TH81</t>
+  </si>
+  <si>
+    <t>Scholz</t>
+  </si>
+  <si>
+    <t>Elisa</t>
+  </si>
+  <si>
+    <t>Musikerin</t>
+  </si>
+  <si>
+    <t>Fliederplatz 79, 80294 München</t>
+  </si>
+  <si>
+    <t>99.png</t>
+  </si>
+  <si>
+    <t>#K650000PJ59</t>
+  </si>
+  <si>
+    <t>Tobias</t>
+  </si>
+  <si>
+    <t>Mimosenweg 74, 80907 München</t>
+  </si>
+  <si>
+    <t>100.png</t>
+  </si>
+  <si>
+    <t>#U420000YZ20</t>
+  </si>
+  <si>
+    <t>Anita</t>
+  </si>
+  <si>
+    <t>Veilchenallee 105, 80778 München</t>
+  </si>
+  <si>
+    <t>101.png</t>
+  </si>
+  <si>
+    <t>#W050000RJ67</t>
+  </si>
+  <si>
+    <t>Groß</t>
+  </si>
+  <si>
+    <t>Programmierer</t>
+  </si>
+  <si>
+    <t>Löwenzahnstraße 16, 80269 München</t>
+  </si>
+  <si>
+    <t>102.png</t>
+  </si>
+  <si>
+    <t>#P530000HA09</t>
+  </si>
+  <si>
+    <t>Köchin</t>
+  </si>
+  <si>
+    <t>Gerberaplatz 51, 80141 München</t>
+  </si>
+  <si>
+    <t>103.png</t>
+  </si>
+  <si>
+    <t>#T860000CI41</t>
+  </si>
+  <si>
+    <t>Marc</t>
+  </si>
+  <si>
+    <t>Optiker</t>
+  </si>
+  <si>
+    <t>Orchideenallee 103, 80355 München</t>
+  </si>
+  <si>
+    <t>104.png</t>
+  </si>
+  <si>
+    <t>#N980000BL72</t>
+  </si>
+  <si>
+    <t>König</t>
+  </si>
+  <si>
+    <t>Physikerin</t>
+  </si>
+  <si>
+    <t>Edelweißstraße 66, 80469 München</t>
+  </si>
+  <si>
+    <t>105.png</t>
+  </si>
+  <si>
+    <t>#B150000GF18</t>
+  </si>
+  <si>
+    <t>Graf</t>
+  </si>
+  <si>
+    <t>Leon</t>
+  </si>
+  <si>
+    <t>Lilienplatz 89, 80810 München</t>
+  </si>
+  <si>
+    <t>106.png</t>
+  </si>
+  <si>
+    <t>#G060000EZ95</t>
+  </si>
+  <si>
+    <t>Petunienweg 22, 80690 München</t>
+  </si>
+  <si>
+    <t>107.png</t>
+  </si>
+  <si>
+    <t>#F890000DW60</t>
+  </si>
+  <si>
+    <t>Bäcker</t>
+  </si>
+  <si>
+    <t>Primelstraße 28, 80527 München</t>
+  </si>
+  <si>
+    <t>108.png</t>
+  </si>
+  <si>
+    <t>#J330000RO31</t>
+  </si>
+  <si>
+    <t>Sängerin</t>
+  </si>
+  <si>
+    <t>Geranienplatz 80, 80295 München</t>
+  </si>
+  <si>
+    <t>109.png</t>
+  </si>
+  <si>
+    <t>#V620000KH46</t>
+  </si>
+  <si>
+    <t>Winter</t>
+  </si>
+  <si>
+    <t>Verkäufer</t>
+  </si>
+  <si>
+    <t>Rosenweg 75, 80908 München</t>
+  </si>
+  <si>
+    <t>110.png</t>
+  </si>
+  <si>
+    <t>#S910000AX15</t>
+  </si>
+  <si>
+    <t>Sommer</t>
+  </si>
+  <si>
+    <t>Jasmin</t>
+  </si>
+  <si>
+    <t>Daisyallee 106, 80779 München</t>
+  </si>
+  <si>
+    <t>111.png</t>
+  </si>
+  <si>
+    <t>#Z780000NO27</t>
+  </si>
+  <si>
+    <t>Patrick</t>
+  </si>
+  <si>
+    <t>Lehrer</t>
+  </si>
+  <si>
+    <t>Azaleenstraße 10, 80301 München</t>
+  </si>
+  <si>
+    <t>112.png</t>
+  </si>
+  <si>
+    <t>#E530000UV89</t>
+  </si>
+  <si>
+    <t>Begonienplatz 46, 80845 München</t>
+  </si>
+  <si>
+    <t>113.png</t>
+  </si>
+  <si>
+    <t>#L060000HM54</t>
+  </si>
+  <si>
+    <t>Tierarzt</t>
+  </si>
+  <si>
+    <t>Chrysanthemenallee 32, 80234 München</t>
+  </si>
+  <si>
+    <t>114.png</t>
+  </si>
+  <si>
+    <t>#X770000XT17</t>
+  </si>
+  <si>
+    <t>Hannah</t>
+  </si>
+  <si>
+    <t>Dahlienstraße 58, 80723 München</t>
+  </si>
+  <si>
+    <t>115.png</t>
+  </si>
+  <si>
+    <t>#R400000JA90</t>
+  </si>
+  <si>
+    <t>Schäfer</t>
+  </si>
+  <si>
+    <t>Julian</t>
+  </si>
+  <si>
+    <t>Efeuplatz 91, 80930 München</t>
+  </si>
+  <si>
+    <t>116.png</t>
+  </si>
+  <si>
+    <t>#O890000IC42</t>
+  </si>
+  <si>
+    <t>Farnallee 17, 80420 München</t>
+  </si>
+  <si>
+    <t>117.png</t>
+  </si>
+  <si>
+    <t>#H300000FS63</t>
+  </si>
+  <si>
+    <t>Timo</t>
+  </si>
+  <si>
+    <t>Barkeeper</t>
+  </si>
+  <si>
+    <t>Gloxinienweg 49, 80360 München</t>
+  </si>
+  <si>
+    <t>118.png</t>
+  </si>
+  <si>
+    <t>#G660000ZD25</t>
+  </si>
+  <si>
+    <t>Vanessa</t>
+  </si>
+  <si>
+    <t>Konditorin</t>
+  </si>
+  <si>
+    <t>Hortensienplatz 74, 80588 München</t>
+  </si>
+  <si>
+    <t>119.png</t>
+  </si>
+  <si>
+    <t>#K010000RY78</t>
+  </si>
+  <si>
+    <t>Hoffmann</t>
+  </si>
+  <si>
+    <t>Christian</t>
+  </si>
+  <si>
+    <t>Astronom</t>
+  </si>
+  <si>
+    <t>Irisstraße 22, 80850 München</t>
+  </si>
+  <si>
+    <t>120.png</t>
+  </si>
+  <si>
+    <t>#P740000LQ13</t>
+  </si>
+  <si>
+    <t>Jasminallee 85, 80970 München</t>
+  </si>
+  <si>
+    <t>121.png</t>
+  </si>
+  <si>
+    <t>#Y200000UB49</t>
+  </si>
+  <si>
+    <t>Manuel</t>
+  </si>
+  <si>
+    <t>Kamelienweg 10, 80201 München</t>
+  </si>
+  <si>
+    <t>122.png</t>
+  </si>
+  <si>
+    <t>#U950000NW26</t>
+  </si>
+  <si>
+    <t>Kathrin</t>
+  </si>
+  <si>
+    <t>Lavendelplatz 38, 80750 München</t>
+  </si>
+  <si>
+    <t>123.png</t>
+  </si>
+  <si>
+    <t>#I080000ZB85</t>
+  </si>
+  <si>
+    <t>Magnolienstraße 63, 80670 München</t>
+  </si>
+  <si>
+    <t>124.png</t>
+  </si>
+  <si>
+    <t>#D370000TM53</t>
+  </si>
+  <si>
+    <t>Ziegler</t>
+  </si>
+  <si>
+    <t>Nelkenweg 47, 80456 München</t>
+  </si>
+  <si>
+    <t>125.png</t>
+  </si>
+  <si>
+    <t>#Z940000VJ64</t>
+  </si>
+  <si>
+    <t>Seidel</t>
+  </si>
+  <si>
+    <t>Orchideenplatz 98, 80540 München</t>
+  </si>
+  <si>
+    <t>126.png</t>
+  </si>
+  <si>
+    <t>#A830000HY12</t>
+  </si>
+  <si>
+    <t>Hahn</t>
+  </si>
+  <si>
+    <t>Petunienallee 23, 80925 München</t>
+  </si>
+  <si>
+    <t>127.png</t>
+  </si>
+  <si>
+    <t>#R680000CO25</t>
+  </si>
+  <si>
+    <t>Dennis</t>
+  </si>
+  <si>
+    <t>Quittenstraße 59, 80765 München</t>
+  </si>
+  <si>
+    <t>128.png</t>
+  </si>
+  <si>
+    <t>#S030000PJ98</t>
+  </si>
+  <si>
+    <t>Heike</t>
+  </si>
+  <si>
+    <t>Rosenplatz 16, 80834 München</t>
+  </si>
+  <si>
+    <t>129.png</t>
+  </si>
+  <si>
+    <t>#W220000KD70</t>
+  </si>
+  <si>
+    <t>Joachim</t>
+  </si>
+  <si>
+    <t>Schneeglöckchenweg 84, 80522 München</t>
+  </si>
+  <si>
+    <t>130.png</t>
+  </si>
+  <si>
+    <t>#N490000FL58</t>
+  </si>
+  <si>
+    <t>Franz</t>
+  </si>
+  <si>
+    <t>Beethovenstraße 12, 80771 München</t>
+  </si>
+  <si>
+    <t>131.png</t>
+  </si>
+  <si>
+    <t>#V320000OG23</t>
+  </si>
+  <si>
+    <t>Balletttänzerin</t>
+  </si>
+  <si>
+    <t>Donauweg 45, 80358 München</t>
+  </si>
+  <si>
+    <t>132.png</t>
+  </si>
+  <si>
+    <t>#E870000UZ99</t>
+  </si>
+  <si>
+    <t>Fahrlehrer</t>
+  </si>
+  <si>
+    <t>Elisenplatz 73, 80690 München</t>
+  </si>
+  <si>
+    <t>133.png</t>
+  </si>
+  <si>
+    <t>#X460000DR53</t>
+  </si>
+  <si>
+    <t>Freiherrstraße 30, 80550 München</t>
+  </si>
+  <si>
+    <t>134.png</t>
+  </si>
+  <si>
+    <t>#H270000FS04</t>
+  </si>
+  <si>
+    <t>Roth</t>
+  </si>
+  <si>
+    <t>Gutenbergallee 52, 80420 München</t>
+  </si>
+  <si>
+    <t>135.png</t>
+  </si>
+  <si>
+    <t>#E930000ZW78</t>
+  </si>
+  <si>
+    <t>Flugbegleiterin</t>
+  </si>
+  <si>
+    <t>Herzogstraße 61, 80340 München</t>
+  </si>
+  <si>
+    <t>136.png</t>
+  </si>
+  <si>
+    <t>#L540000HX61</t>
+  </si>
+  <si>
+    <t>Imker</t>
+  </si>
+  <si>
+    <t>Isarweg 14, 80685 München</t>
+  </si>
+  <si>
+    <t>137.png</t>
+  </si>
+  <si>
+    <t>#W690000JA92</t>
+  </si>
+  <si>
+    <t>Kaiser</t>
+  </si>
+  <si>
+    <t>Johannstraße 35, 80750 München</t>
+  </si>
+  <si>
+    <t>138.png</t>
+  </si>
+  <si>
+    <t>#F120000VK45</t>
+  </si>
+  <si>
+    <t>Konradplatz 46, 80902 München</t>
+  </si>
+  <si>
+    <t>139.png</t>
+  </si>
+  <si>
+    <t>#Z830000QN20</t>
+  </si>
+  <si>
+    <t>Carolin</t>
+  </si>
+  <si>
+    <t>Rechtsanwältin</t>
+  </si>
+  <si>
+    <t>Ludwigallee 59, 80510 München</t>
+  </si>
+  <si>
+    <t>140.png</t>
+  </si>
+  <si>
+    <t>#P740000WO39</t>
+  </si>
+  <si>
+    <t>Schultz</t>
+  </si>
+  <si>
+    <t>Markus</t>
+  </si>
+  <si>
+    <t>Mozartweg 28, 80470 München</t>
+  </si>
+  <si>
+    <t>141.png</t>
+  </si>
+  <si>
+    <t>#S060000BY74</t>
+  </si>
+  <si>
+    <t>Lucia</t>
+  </si>
+  <si>
+    <t>Nikolausplatz 37, 80760 München</t>
+  </si>
+  <si>
+    <t>142.png</t>
+  </si>
+  <si>
+    <t>#Q580000RM17</t>
+  </si>
+  <si>
+    <t>Hartmann</t>
+  </si>
+  <si>
+    <t>Ottostraße 84, 80620 München</t>
+  </si>
+  <si>
+    <t>143.png</t>
+  </si>
+  <si>
+    <t>#D350000XT90</t>
+  </si>
+  <si>
+    <t>Isabelle</t>
+  </si>
+  <si>
+    <t>Paulusweg 95, 80940 München</t>
+  </si>
+  <si>
+    <t>144.png</t>
+  </si>
+  <si>
+    <t>#G910000LF42</t>
+  </si>
+  <si>
+    <t>Tom</t>
+  </si>
+  <si>
+    <t>Rainerstraße 10, 80680 München</t>
+  </si>
+  <si>
+    <t>145.png</t>
+  </si>
+  <si>
+    <t>#I430000JZ65</t>
+  </si>
+  <si>
+    <t>Stefanplatz 21, 80840 München</t>
+  </si>
+  <si>
+    <t>146.png</t>
+  </si>
+  <si>
+    <t>#N790000UP24</t>
+  </si>
+  <si>
+    <t>Lehmann</t>
+  </si>
+  <si>
+    <t>Thomasallee 78, 80960 München</t>
+  </si>
+  <si>
+    <t>147.png</t>
+  </si>
+  <si>
+    <t>#B280000MI58</t>
+  </si>
+  <si>
+    <t>Al-Sayed</t>
+  </si>
+  <si>
+    <t>Fatima</t>
+  </si>
+  <si>
+    <t>Softwareentwicklerin</t>
+  </si>
+  <si>
+    <t>Viktorstraße 23, 80841 München</t>
+  </si>
+  <si>
+    <t>148.png</t>
+  </si>
+  <si>
+    <t>#V600000CW09</t>
+  </si>
+  <si>
+    <t>Bhatia</t>
+  </si>
+  <si>
+    <t>Vikram</t>
+  </si>
+  <si>
+    <t>Quellweg 54, 80799 München</t>
+  </si>
+  <si>
+    <t>149.png</t>
+  </si>
+  <si>
+    <t>#R530000AH41</t>
+  </si>
+  <si>
+    <t>Modebloggerin</t>
+  </si>
+  <si>
+    <t>Romerostraße 12, 80833 München</t>
+  </si>
+  <si>
+    <t>150.png</t>
+  </si>
+  <si>
+    <t>#M860000TO72</t>
+  </si>
+  <si>
+    <t>Sanchez</t>
+  </si>
+  <si>
+    <t>Silberplatz 67, 80955 München</t>
+  </si>
+  <si>
+    <t>151.png</t>
+  </si>
+  <si>
+    <t>#A150000GF18</t>
+  </si>
+  <si>
+    <t>Okafor</t>
+  </si>
+  <si>
+    <t>Chinelo</t>
+  </si>
+  <si>
+    <t>Pharmazeutin</t>
+  </si>
+  <si>
+    <t>Titaniastraße 89, 80745 München</t>
+  </si>
+  <si>
+    <t>152.png</t>
+  </si>
+  <si>
+    <t>#T070000EZ96</t>
+  </si>
+  <si>
+    <t>Heinrich</t>
+  </si>
+  <si>
+    <t>Leonard</t>
+  </si>
+  <si>
+    <t>Bibliothekar</t>
+  </si>
+  <si>
+    <t>Urbanplatz 11, 80825 München</t>
+  </si>
+  <si>
+    <t>153.png</t>
+  </si>
+  <si>
+    <t>#K890000DW61</t>
+  </si>
+  <si>
+    <t>Beck</t>
+  </si>
+  <si>
+    <t>Kunsthistorikerin</t>
+  </si>
+  <si>
+    <t>Voltaireweg 44, 80850 München</t>
+  </si>
+  <si>
+    <t>154.png</t>
+  </si>
+  <si>
+    <t>#J330000RO32</t>
+  </si>
+  <si>
+    <t>Drescher</t>
+  </si>
+  <si>
+    <t>Karl</t>
+  </si>
+  <si>
+    <t>Konditor</t>
+  </si>
+  <si>
+    <t>Wagnerstraße 33, 80875 München</t>
+  </si>
+  <si>
+    <t>155.png</t>
+  </si>
+  <si>
+    <t>#O620000KH47</t>
+  </si>
+  <si>
+    <t>Ebert</t>
+  </si>
+  <si>
+    <t>Xantenallee 52, 80895 München</t>
+  </si>
+  <si>
+    <t>156.png</t>
+  </si>
+  <si>
+    <t>#C920000AX16</t>
+  </si>
+  <si>
+    <t>Friedrich</t>
+  </si>
+  <si>
+    <t>Max</t>
+  </si>
+  <si>
+    <t>Yorkstraße 71, 80865 München</t>
+  </si>
+  <si>
+    <t>157.png</t>
+  </si>
+  <si>
+    <t>#Z790000NO28</t>
+  </si>
+  <si>
+    <t>Klara</t>
+  </si>
+  <si>
+    <t>Zedernweg 80, 80805 München</t>
+  </si>
+  <si>
+    <t>158.png</t>
+  </si>
+  <si>
+    <t>#U540000UV90</t>
+  </si>
+  <si>
+    <t>Hirsch</t>
+  </si>
+  <si>
+    <t>Alphastraße 9, 80835 München</t>
+  </si>
+  <si>
+    <t>159.png</t>
+  </si>
+  <si>
+    <t>#L070000HM55</t>
+  </si>
+  <si>
+    <t>Jung</t>
+  </si>
+  <si>
+    <t>Archäologin</t>
+  </si>
+  <si>
+    <t>Betaplaza 28, 80845 München</t>
+  </si>
+  <si>
+    <t>160.png</t>
+  </si>
+  <si>
+    <t>#X780000XT18</t>
+  </si>
+  <si>
+    <t>Kern</t>
+  </si>
+  <si>
+    <t>Grafikdesigner</t>
+  </si>
+  <si>
+    <t>Charonweg 47, 80855 München</t>
+  </si>
+  <si>
+    <t>161.png</t>
+  </si>
+  <si>
+    <t>#E420000JA91</t>
+  </si>
+  <si>
+    <t>Lutz</t>
+  </si>
+  <si>
+    <t>Simone</t>
+  </si>
+  <si>
+    <t>Deltastraße 66, 80865 München</t>
+  </si>
+  <si>
+    <t>162.png</t>
+  </si>
+  <si>
+    <t>#R900000IC43</t>
+  </si>
+  <si>
+    <t>Honigberg</t>
+  </si>
+  <si>
+    <t>Stella</t>
+  </si>
+  <si>
+    <t>Kardiologin</t>
+  </si>
+  <si>
+    <t>Ludwigallee 9, 80510 München</t>
+  </si>
+  <si>
+    <t>163.png</t>
+  </si>
+  <si>
+    <t>#Y310000FS64</t>
+  </si>
+  <si>
+    <t>Cranz</t>
+  </si>
+  <si>
+    <t>Emmanuel</t>
+  </si>
+  <si>
+    <t>Künstler</t>
+  </si>
+  <si>
+    <t>Mozartweg 2, 80470 München</t>
+  </si>
+  <si>
+    <t>164.png</t>
+  </si>
+  <si>
+    <t>#H670000ZD26</t>
+  </si>
+  <si>
+    <t>Hagedorn</t>
+  </si>
+  <si>
+    <t>Gustav</t>
+  </si>
+  <si>
+    <t>Bürgermeister a. D.</t>
+  </si>
+  <si>
+    <t>Nikolausplatz 7, 80760 München</t>
+  </si>
+  <si>
+    <t>165.png</t>
+  </si>
+  <si>
+    <t>#K020000RY79</t>
+  </si>
+  <si>
+    <t>Klimtmann</t>
+  </si>
+  <si>
+    <t>Frieda</t>
+  </si>
+  <si>
+    <t>Homöopathin</t>
+  </si>
+  <si>
+    <t>Ottostraße 8, 80620 München</t>
+  </si>
+  <si>
+    <t>166.png</t>
+  </si>
+  <si>
+    <t>#L360000KW23</t>
+  </si>
+  <si>
+    <t>Wank</t>
+  </si>
+  <si>
+    <t>Carmen</t>
+  </si>
+  <si>
+    <t>Anwältin</t>
+  </si>
+  <si>
+    <t>Sonnenallee 39, 80231 München</t>
+  </si>
+  <si>
+    <t>170.png</t>
+  </si>
+  <si>
+    <t>#Y400000PD65</t>
+  </si>
+  <si>
+    <t>Lampadius</t>
+  </si>
+  <si>
+    <t>Micha</t>
+  </si>
+  <si>
+    <t>Birkstraße 18, 80423 München</t>
+  </si>
+  <si>
+    <t>171.png</t>
+  </si>
+  <si>
+    <t>#U960000NR66</t>
+  </si>
+  <si>
+    <t>Buckler</t>
+  </si>
+  <si>
+    <t>Anton</t>
+  </si>
+  <si>
+    <t>Lopäde</t>
+  </si>
+  <si>
+    <t>Eichenweg 4, 80115 München</t>
+  </si>
+  <si>
+    <t>172.png</t>
+  </si>
+  <si>
+    <t>#W080000ZJ35</t>
+  </si>
+  <si>
+    <t>Gulbia</t>
+  </si>
+  <si>
+    <t>Kitija</t>
+  </si>
+  <si>
+    <t>Archivarin</t>
+  </si>
+  <si>
+    <t>Kastanienallee 52, 80902 München</t>
+  </si>
+  <si>
+    <t>173.png</t>
+  </si>
+  <si>
+    <t>#D670000TO03</t>
+  </si>
+  <si>
+    <t>Kayserling</t>
+  </si>
+  <si>
+    <t>Severin</t>
+  </si>
+  <si>
+    <t>Mönch</t>
+  </si>
+  <si>
+    <t>Lindenstraße 8, 80322 München</t>
+  </si>
+  <si>
+    <t>174.png</t>
+  </si>
+  <si>
+    <t>#G640000LQ09</t>
+  </si>
+  <si>
+    <t>Stocker</t>
+  </si>
+  <si>
+    <t>Clemens</t>
+  </si>
+  <si>
+    <t>Tannenweg 115, 80808 München</t>
+  </si>
+  <si>
+    <t>175.png</t>
+  </si>
+  <si>
+    <t>#A670000YY00</t>
+  </si>
+  <si>
+    <t>Ephron</t>
+  </si>
+  <si>
+    <t>Ahuva</t>
+  </si>
+  <si>
+    <t>Buchenweg 41, 80745 München</t>
+  </si>
+  <si>
+    <t>176.png</t>
+  </si>
+  <si>
+    <t>#R280000CO27</t>
+  </si>
+  <si>
+    <t>Közen</t>
+  </si>
+  <si>
+    <t>Ilgün</t>
+  </si>
+  <si>
+    <t>Kiefernstraße 4, 80634 München</t>
+  </si>
+  <si>
+    <t>177.png</t>
+  </si>
+  <si>
+    <t>#O000000OO00</t>
+  </si>
+  <si>
+    <t>Martino</t>
+  </si>
+  <si>
+    <t>Siro</t>
+  </si>
+  <si>
+    <t>Studienrat</t>
+  </si>
+  <si>
+    <t>Johannstraße 17, 80750 München</t>
+  </si>
+  <si>
+    <t>178.png</t>
   </si>
 </sst>
 </file>
@@ -1330,6 +2737,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1629,10 +3040,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC1786A1-8B69-4794-BF1C-9A89E428DA95}">
-  <dimension ref="A1:I94"/>
+  <dimension ref="A1:I177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="E99" sqref="E99"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1667,95 +3078,95 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
+      <c r="A2" t="s">
+        <v>751</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>752</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>753</v>
       </c>
       <c r="D2" s="1">
-        <v>27454</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>11</v>
+        <v>33614</v>
+      </c>
+      <c r="E2" t="s">
+        <v>754</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>755</v>
       </c>
       <c r="I2" t="s">
-        <v>14</v>
+        <v>756</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
+      <c r="A3" t="s">
+        <v>516</v>
       </c>
       <c r="B3" t="s">
-        <v>15</v>
+        <v>314</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>244</v>
       </c>
       <c r="D3" s="1">
-        <v>32316</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>17</v>
+        <v>34101</v>
+      </c>
+      <c r="E3" t="s">
+        <v>517</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>19</v>
+        <v>518</v>
       </c>
       <c r="I3" t="s">
-        <v>20</v>
+        <v>519</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
+      <c r="A4" t="s">
+        <v>477</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>314</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>138</v>
       </c>
       <c r="D4" s="1">
-        <v>35294</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>23</v>
+        <v>25131</v>
+      </c>
+      <c r="E4" t="s">
+        <v>315</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H4" t="s">
-        <v>25</v>
+        <v>316</v>
       </c>
       <c r="I4" t="s">
-        <v>26</v>
+        <v>317</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
+      <c r="A5" t="s">
+        <v>414</v>
       </c>
       <c r="B5" t="s">
         <v>27</v>
@@ -1783,704 +3194,704 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="A6" t="s">
+        <v>864</v>
+      </c>
+      <c r="B6" t="s">
+        <v>865</v>
+      </c>
+      <c r="C6" t="s">
+        <v>866</v>
+      </c>
+      <c r="D6" s="1">
+        <v>26848</v>
+      </c>
+      <c r="E6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="1">
-        <v>22188</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G6">
-        <v>4</v>
-      </c>
       <c r="H6" t="s">
-        <v>37</v>
+        <v>867</v>
       </c>
       <c r="I6" t="s">
-        <v>38</v>
+        <v>868</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
+      <c r="A7" t="s">
+        <v>449</v>
       </c>
       <c r="B7" t="s">
         <v>39</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>202</v>
       </c>
       <c r="D7" s="1">
-        <v>34074</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>41</v>
+        <v>31305</v>
+      </c>
+      <c r="E7" t="s">
+        <v>203</v>
       </c>
       <c r="F7" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="G7" t="s">
         <v>43</v>
       </c>
       <c r="H7" t="s">
-        <v>44</v>
+        <v>204</v>
       </c>
       <c r="I7" t="s">
-        <v>45</v>
+        <v>205</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7</v>
+      <c r="A8" t="s">
+        <v>649</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>650</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>133</v>
       </c>
       <c r="D8" s="1">
-        <v>29256</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>48</v>
+        <v>36886</v>
+      </c>
+      <c r="E8" t="s">
+        <v>221</v>
       </c>
       <c r="F8" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="G8">
+        <v>4</v>
+      </c>
+      <c r="H8" t="s">
+        <v>651</v>
+      </c>
+      <c r="I8" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>561</v>
+      </c>
+      <c r="B9" t="s">
+        <v>562</v>
+      </c>
+      <c r="C9" t="s">
+        <v>563</v>
+      </c>
+      <c r="D9" s="1">
+        <v>34398</v>
+      </c>
+      <c r="E9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9">
         <v>1</v>
       </c>
-      <c r="H8" t="s">
-        <v>50</v>
-      </c>
-      <c r="I8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" s="1">
-        <v>20441</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="F9" t="s">
-        <v>55</v>
-      </c>
-      <c r="G9" t="s">
-        <v>56</v>
-      </c>
       <c r="H9" t="s">
-        <v>57</v>
+        <v>564</v>
       </c>
       <c r="I9" t="s">
-        <v>58</v>
+        <v>565</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>9</v>
+      <c r="A10" t="s">
+        <v>444</v>
       </c>
       <c r="B10" t="s">
-        <v>59</v>
+        <v>184</v>
       </c>
       <c r="C10" t="s">
         <v>60</v>
       </c>
       <c r="D10" s="1">
-        <v>37079</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>61</v>
+        <v>20558</v>
+      </c>
+      <c r="E10" t="s">
+        <v>185</v>
       </c>
       <c r="F10" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H10" t="s">
-        <v>63</v>
+        <v>186</v>
       </c>
       <c r="I10" t="s">
-        <v>64</v>
+        <v>187</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>10</v>
+      <c r="A11" t="s">
+        <v>463</v>
       </c>
       <c r="B11" t="s">
-        <v>65</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>66</v>
+        <v>265</v>
       </c>
       <c r="D11" s="1">
-        <v>28996</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>67</v>
+        <v>29457</v>
+      </c>
+      <c r="E11" t="s">
+        <v>266</v>
       </c>
       <c r="F11" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="G11">
         <v>2</v>
       </c>
       <c r="H11" t="s">
-        <v>69</v>
+        <v>267</v>
       </c>
       <c r="I11" t="s">
-        <v>70</v>
+        <v>268</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>11</v>
+      <c r="A12" t="s">
+        <v>732</v>
       </c>
       <c r="B12" t="s">
-        <v>71</v>
+        <v>733</v>
       </c>
       <c r="C12" t="s">
-        <v>72</v>
+        <v>734</v>
       </c>
       <c r="D12" s="1">
-        <v>34982</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>73</v>
+        <v>34794</v>
+      </c>
+      <c r="E12" t="s">
+        <v>735</v>
       </c>
       <c r="F12" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>74</v>
+        <v>736</v>
       </c>
       <c r="I12" t="s">
-        <v>75</v>
+        <v>737</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>12</v>
+      <c r="A13" t="s">
+        <v>495</v>
       </c>
       <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" t="s">
+        <v>378</v>
+      </c>
+      <c r="D13" s="1">
+        <v>37717</v>
+      </c>
+      <c r="E13" t="s">
+        <v>379</v>
+      </c>
+      <c r="F13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13">
+        <v>3</v>
+      </c>
+      <c r="H13" t="s">
+        <v>380</v>
+      </c>
+      <c r="I13" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>422</v>
+      </c>
+      <c r="B14" t="s">
         <v>76</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C14" t="s">
         <v>77</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D14" s="1">
         <v>31431</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F14" t="s">
         <v>79</v>
       </c>
-      <c r="G13">
+      <c r="G14">
         <v>2</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H14" t="s">
         <v>80</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I14" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>82</v>
-      </c>
-      <c r="C14" t="s">
-        <v>83</v>
-      </c>
-      <c r="D14" s="1">
-        <v>33297</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="F14" t="s">
-        <v>49</v>
-      </c>
-      <c r="G14">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>431</v>
+      </c>
+      <c r="B15" t="s">
+        <v>122</v>
+      </c>
+      <c r="C15" t="s">
+        <v>123</v>
+      </c>
+      <c r="D15" s="1">
+        <v>27375</v>
+      </c>
+      <c r="E15" t="s">
+        <v>124</v>
+      </c>
+      <c r="F15" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15">
         <v>1</v>
       </c>
-      <c r="H14" t="s">
-        <v>85</v>
-      </c>
-      <c r="I14" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>87</v>
-      </c>
-      <c r="C15" t="s">
-        <v>88</v>
-      </c>
-      <c r="D15" s="1">
-        <v>28565</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="H15" t="s">
+        <v>125</v>
+      </c>
+      <c r="I15" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>494</v>
+      </c>
+      <c r="B16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" t="s">
+        <v>229</v>
+      </c>
+      <c r="D16" s="1">
+        <v>29309</v>
+      </c>
+      <c r="E16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F16" t="s">
         <v>90</v>
       </c>
-      <c r="G15">
-        <v>3</v>
-      </c>
-      <c r="H15" t="s">
-        <v>91</v>
-      </c>
-      <c r="I15" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>93</v>
-      </c>
-      <c r="C16" t="s">
-        <v>16</v>
-      </c>
-      <c r="D16" s="1">
-        <v>36621</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="F16" t="s">
-        <v>36</v>
-      </c>
-      <c r="G16" t="s">
-        <v>43</v>
+      <c r="G16">
+        <v>1</v>
       </c>
       <c r="H16" t="s">
-        <v>95</v>
+        <v>376</v>
       </c>
       <c r="I16" t="s">
-        <v>96</v>
+        <v>377</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>16</v>
+      <c r="A17" t="s">
+        <v>456</v>
       </c>
       <c r="B17" t="s">
-        <v>97</v>
+        <v>233</v>
       </c>
       <c r="C17" t="s">
-        <v>98</v>
+        <v>234</v>
       </c>
       <c r="D17" s="1">
-        <v>23884</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>99</v>
+        <v>26406</v>
+      </c>
+      <c r="E17" t="s">
+        <v>235</v>
       </c>
       <c r="F17" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="G17">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H17" t="s">
-        <v>100</v>
+        <v>236</v>
       </c>
       <c r="I17" t="s">
-        <v>101</v>
+        <v>237</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>17</v>
+      <c r="A18" t="s">
+        <v>778</v>
       </c>
       <c r="B18" t="s">
-        <v>102</v>
+        <v>779</v>
       </c>
       <c r="C18" t="s">
-        <v>103</v>
+        <v>780</v>
       </c>
       <c r="D18" s="1">
-        <v>34150</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>104</v>
+        <v>32412</v>
+      </c>
+      <c r="E18" t="s">
+        <v>379</v>
       </c>
       <c r="F18" t="s">
-        <v>79</v>
+        <v>55</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="H18" t="s">
-        <v>105</v>
+        <v>781</v>
       </c>
       <c r="I18" t="s">
-        <v>106</v>
+        <v>782</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>18</v>
+      <c r="A19" s="2" t="s">
+        <v>405</v>
       </c>
       <c r="B19" t="s">
-        <v>107</v>
+        <v>406</v>
       </c>
       <c r="C19" t="s">
-        <v>108</v>
+        <v>407</v>
       </c>
       <c r="D19" s="1">
-        <v>30139</v>
+        <v>29800</v>
       </c>
       <c r="E19" t="s">
-        <v>109</v>
+        <v>408</v>
       </c>
       <c r="F19" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="G19" t="s">
         <v>56</v>
       </c>
       <c r="H19" t="s">
-        <v>110</v>
+        <v>409</v>
       </c>
       <c r="I19" t="s">
-        <v>111</v>
+        <v>410</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>19</v>
+      <c r="A20" t="s">
+        <v>717</v>
       </c>
       <c r="B20" t="s">
-        <v>112</v>
+        <v>184</v>
       </c>
       <c r="C20" t="s">
-        <v>113</v>
+        <v>718</v>
       </c>
       <c r="D20" s="1">
-        <v>21776</v>
+        <v>35198</v>
       </c>
       <c r="E20" t="s">
-        <v>114</v>
+        <v>522</v>
       </c>
       <c r="F20" t="s">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="G20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H20" t="s">
-        <v>115</v>
+        <v>719</v>
       </c>
       <c r="I20" t="s">
-        <v>116</v>
+        <v>720</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>20</v>
+      <c r="A21" t="s">
+        <v>641</v>
       </c>
       <c r="B21" t="s">
-        <v>117</v>
+        <v>642</v>
       </c>
       <c r="C21" t="s">
-        <v>118</v>
+        <v>28</v>
       </c>
       <c r="D21" s="1">
-        <v>26199</v>
+        <v>28772</v>
       </c>
       <c r="E21" t="s">
         <v>119</v>
       </c>
       <c r="F21" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="G21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H21" t="s">
-        <v>120</v>
+        <v>643</v>
       </c>
       <c r="I21" t="s">
-        <v>121</v>
+        <v>644</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>21</v>
+      <c r="A22" t="s">
+        <v>482</v>
       </c>
       <c r="B22" t="s">
-        <v>122</v>
+        <v>211</v>
       </c>
       <c r="C22" t="s">
-        <v>123</v>
+        <v>334</v>
       </c>
       <c r="D22" s="1">
-        <v>27375</v>
+        <v>30017</v>
       </c>
       <c r="E22" t="s">
-        <v>124</v>
+        <v>29</v>
       </c>
       <c r="F22" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="H22" t="s">
-        <v>125</v>
+        <v>335</v>
       </c>
       <c r="I22" t="s">
-        <v>126</v>
+        <v>336</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>22</v>
+      <c r="A23" t="s">
+        <v>452</v>
       </c>
       <c r="B23" t="s">
-        <v>127</v>
+        <v>15</v>
       </c>
       <c r="C23" t="s">
-        <v>128</v>
+        <v>216</v>
       </c>
       <c r="D23" s="1">
-        <v>30320</v>
+        <v>31760</v>
       </c>
       <c r="E23" t="s">
-        <v>129</v>
+        <v>89</v>
       </c>
       <c r="F23" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="G23">
         <v>2</v>
       </c>
       <c r="H23" t="s">
-        <v>130</v>
+        <v>217</v>
       </c>
       <c r="I23" t="s">
-        <v>131</v>
+        <v>218</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>23</v>
+      <c r="A24" t="s">
+        <v>853</v>
       </c>
       <c r="B24" t="s">
-        <v>132</v>
+        <v>854</v>
       </c>
       <c r="C24" t="s">
-        <v>133</v>
+        <v>855</v>
       </c>
       <c r="D24" s="1">
-        <v>36217</v>
+        <v>28206</v>
       </c>
       <c r="E24" t="s">
-        <v>134</v>
+        <v>856</v>
       </c>
       <c r="F24" t="s">
-        <v>79</v>
-      </c>
-      <c r="G24" t="s">
+        <v>62</v>
+      </c>
+      <c r="G24">
+        <v>5</v>
+      </c>
+      <c r="H24" t="s">
+        <v>857</v>
+      </c>
+      <c r="I24" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>425</v>
+      </c>
+      <c r="B25" t="s">
+        <v>93</v>
+      </c>
+      <c r="C25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="1">
+        <v>36621</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="F25" t="s">
+        <v>36</v>
+      </c>
+      <c r="G25" t="s">
         <v>43</v>
       </c>
-      <c r="H24" t="s">
-        <v>135</v>
-      </c>
-      <c r="I24" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>137</v>
-      </c>
-      <c r="C25" t="s">
-        <v>138</v>
-      </c>
-      <c r="D25" s="1">
-        <v>24549</v>
-      </c>
-      <c r="E25" t="s">
-        <v>139</v>
-      </c>
-      <c r="F25" t="s">
+      <c r="H25" t="s">
+        <v>95</v>
+      </c>
+      <c r="I25" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>520</v>
+      </c>
+      <c r="B26" t="s">
+        <v>175</v>
+      </c>
+      <c r="C26" t="s">
+        <v>521</v>
+      </c>
+      <c r="D26" s="1">
+        <v>32679</v>
+      </c>
+      <c r="E26" t="s">
+        <v>522</v>
+      </c>
+      <c r="F26" t="s">
         <v>18</v>
       </c>
-      <c r="G25">
-        <v>5</v>
-      </c>
-      <c r="H25" t="s">
-        <v>140</v>
-      </c>
-      <c r="I25" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26" t="s">
-        <v>142</v>
-      </c>
-      <c r="C26" t="s">
-        <v>143</v>
-      </c>
-      <c r="D26" s="1">
-        <v>37354</v>
-      </c>
-      <c r="E26" t="s">
-        <v>144</v>
-      </c>
-      <c r="F26" t="s">
-        <v>30</v>
-      </c>
       <c r="G26">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H26" t="s">
-        <v>145</v>
+        <v>523</v>
       </c>
       <c r="I26" t="s">
-        <v>146</v>
+        <v>524</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>26</v>
+      <c r="A27" t="s">
+        <v>470</v>
       </c>
       <c r="B27" t="s">
-        <v>147</v>
+        <v>59</v>
       </c>
       <c r="C27" t="s">
-        <v>148</v>
+        <v>290</v>
       </c>
       <c r="D27" s="1">
-        <v>18413</v>
+        <v>34410</v>
       </c>
       <c r="E27" t="s">
-        <v>35</v>
+        <v>109</v>
       </c>
       <c r="F27" t="s">
         <v>49</v>
       </c>
-      <c r="G27">
-        <v>4</v>
+      <c r="G27" t="s">
+        <v>43</v>
       </c>
       <c r="H27" t="s">
-        <v>149</v>
+        <v>291</v>
       </c>
       <c r="I27" t="s">
-        <v>150</v>
+        <v>292</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>27</v>
+      <c r="A28" t="s">
+        <v>427</v>
       </c>
       <c r="B28" t="s">
-        <v>151</v>
+        <v>102</v>
       </c>
       <c r="C28" t="s">
-        <v>152</v>
+        <v>103</v>
       </c>
       <c r="D28" s="1">
-        <v>32670</v>
-      </c>
-      <c r="E28" t="s">
-        <v>153</v>
+        <v>34150</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>104</v>
       </c>
       <c r="F28" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="G28">
         <v>1</v>
       </c>
       <c r="H28" t="s">
-        <v>154</v>
+        <v>105</v>
       </c>
       <c r="I28" t="s">
-        <v>155</v>
+        <v>106</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>28</v>
+      <c r="A29" t="s">
+        <v>801</v>
       </c>
       <c r="B29" t="s">
-        <v>156</v>
+        <v>802</v>
       </c>
       <c r="C29" t="s">
-        <v>157</v>
+        <v>803</v>
       </c>
       <c r="D29" s="1">
-        <v>25764</v>
+        <v>35836</v>
       </c>
       <c r="E29" t="s">
-        <v>158</v>
+        <v>240</v>
       </c>
       <c r="F29" t="s">
-        <v>90</v>
-      </c>
-      <c r="G29" t="s">
-        <v>56</v>
+        <v>79</v>
+      </c>
+      <c r="G29">
+        <v>2</v>
       </c>
       <c r="H29" t="s">
-        <v>159</v>
+        <v>804</v>
       </c>
       <c r="I29" t="s">
-        <v>160</v>
+        <v>805</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>29</v>
+      <c r="A30" t="s">
+        <v>439</v>
       </c>
       <c r="B30" t="s">
         <v>161</v>
@@ -2508,1383 +3919,1383 @@
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>30</v>
+      <c r="A31" t="s">
+        <v>592</v>
       </c>
       <c r="B31" t="s">
-        <v>166</v>
+        <v>59</v>
       </c>
       <c r="C31" t="s">
+        <v>382</v>
+      </c>
+      <c r="D31" s="1">
+        <v>36450</v>
+      </c>
+      <c r="E31" t="s">
+        <v>181</v>
+      </c>
+      <c r="F31" t="s">
+        <v>24</v>
+      </c>
+      <c r="G31">
+        <v>2</v>
+      </c>
+      <c r="H31" t="s">
+        <v>593</v>
+      </c>
+      <c r="I31" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>500</v>
+      </c>
+      <c r="B32" t="s">
+        <v>394</v>
+      </c>
+      <c r="C32" t="s">
+        <v>395</v>
+      </c>
+      <c r="D32" s="1">
+        <v>36425</v>
+      </c>
+      <c r="E32" t="s">
+        <v>396</v>
+      </c>
+      <c r="F32" t="s">
+        <v>55</v>
+      </c>
+      <c r="G32" t="s">
+        <v>43</v>
+      </c>
+      <c r="H32" t="s">
+        <v>397</v>
+      </c>
+      <c r="I32" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>673</v>
+      </c>
+      <c r="B33" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33" t="s">
+        <v>535</v>
+      </c>
+      <c r="D33" s="1">
+        <v>27548</v>
+      </c>
+      <c r="E33" t="s">
+        <v>674</v>
+      </c>
+      <c r="F33" t="s">
+        <v>49</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33" t="s">
+        <v>675</v>
+      </c>
+      <c r="I33" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>684</v>
+      </c>
+      <c r="B34" t="s">
+        <v>233</v>
+      </c>
+      <c r="C34" t="s">
+        <v>370</v>
+      </c>
+      <c r="D34" s="1">
+        <v>30198</v>
+      </c>
+      <c r="E34" t="s">
+        <v>685</v>
+      </c>
+      <c r="F34" t="s">
+        <v>24</v>
+      </c>
+      <c r="G34">
+        <v>3</v>
+      </c>
+      <c r="H34" t="s">
+        <v>686</v>
+      </c>
+      <c r="I34" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>497</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" t="s">
+        <v>385</v>
+      </c>
+      <c r="D35" s="1">
+        <v>25744</v>
+      </c>
+      <c r="E35" t="s">
+        <v>386</v>
+      </c>
+      <c r="F35" t="s">
+        <v>62</v>
+      </c>
+      <c r="G35">
+        <v>4</v>
+      </c>
+      <c r="H35" t="s">
+        <v>387</v>
+      </c>
+      <c r="I35" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>696</v>
+      </c>
+      <c r="B36" t="s">
+        <v>353</v>
+      </c>
+      <c r="C36" t="s">
         <v>167</v>
       </c>
-      <c r="D31" s="1">
-        <v>29491</v>
-      </c>
-      <c r="E31" t="s">
-        <v>168</v>
-      </c>
-      <c r="F31" t="s">
-        <v>36</v>
-      </c>
-      <c r="G31">
-        <v>1</v>
-      </c>
-      <c r="H31" t="s">
-        <v>169</v>
-      </c>
-      <c r="I31" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32" t="s">
-        <v>33</v>
-      </c>
-      <c r="C32" t="s">
-        <v>171</v>
-      </c>
-      <c r="D32" s="1">
-        <v>32453</v>
-      </c>
-      <c r="E32" t="s">
-        <v>172</v>
-      </c>
-      <c r="F32" t="s">
-        <v>12</v>
-      </c>
-      <c r="G32">
-        <v>1</v>
-      </c>
-      <c r="H32" t="s">
-        <v>173</v>
-      </c>
-      <c r="I32" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33" t="s">
-        <v>175</v>
-      </c>
-      <c r="C33" t="s">
-        <v>176</v>
-      </c>
-      <c r="D33" s="1">
-        <v>27441</v>
-      </c>
-      <c r="E33" t="s">
-        <v>177</v>
-      </c>
-      <c r="F33" t="s">
-        <v>18</v>
-      </c>
-      <c r="G33">
-        <v>2</v>
-      </c>
-      <c r="H33" t="s">
-        <v>178</v>
-      </c>
-      <c r="I33" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34" t="s">
-        <v>59</v>
-      </c>
-      <c r="C34" t="s">
-        <v>180</v>
-      </c>
-      <c r="D34" s="1">
-        <v>32956</v>
-      </c>
-      <c r="E34" t="s">
-        <v>181</v>
-      </c>
-      <c r="F34" t="s">
+      <c r="D36" s="1">
+        <v>33237</v>
+      </c>
+      <c r="E36" t="s">
+        <v>184</v>
+      </c>
+      <c r="F36" t="s">
         <v>62</v>
-      </c>
-      <c r="G34">
-        <v>1</v>
-      </c>
-      <c r="H34" t="s">
-        <v>182</v>
-      </c>
-      <c r="I34" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35" t="s">
-        <v>184</v>
-      </c>
-      <c r="C35" t="s">
-        <v>60</v>
-      </c>
-      <c r="D35" s="1">
-        <v>20558</v>
-      </c>
-      <c r="E35" t="s">
-        <v>185</v>
-      </c>
-      <c r="F35" t="s">
-        <v>30</v>
-      </c>
-      <c r="G35">
-        <v>3</v>
-      </c>
-      <c r="H35" t="s">
-        <v>186</v>
-      </c>
-      <c r="I35" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36" t="s">
-        <v>52</v>
-      </c>
-      <c r="C36" t="s">
-        <v>40</v>
-      </c>
-      <c r="D36" s="1">
-        <v>37379</v>
-      </c>
-      <c r="E36" t="s">
-        <v>188</v>
-      </c>
-      <c r="F36" t="s">
-        <v>90</v>
       </c>
       <c r="G36">
         <v>1</v>
       </c>
       <c r="H36" t="s">
-        <v>189</v>
+        <v>697</v>
       </c>
       <c r="I36" t="s">
-        <v>190</v>
+        <v>698</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37">
+      <c r="A37" t="s">
+        <v>417</v>
+      </c>
+      <c r="B37" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37" t="s">
+        <v>47</v>
+      </c>
+      <c r="D37" s="1">
+        <v>29256</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F37" t="s">
+        <v>49</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="H37" t="s">
+        <v>50</v>
+      </c>
+      <c r="I37" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>461</v>
+      </c>
+      <c r="B38" t="s">
+        <v>258</v>
+      </c>
+      <c r="C38" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" s="1">
+        <v>32588</v>
+      </c>
+      <c r="E38" t="s">
+        <v>259</v>
+      </c>
+      <c r="F38" t="s">
+        <v>62</v>
+      </c>
+      <c r="G38" t="s">
+        <v>56</v>
+      </c>
+      <c r="H38" t="s">
+        <v>260</v>
+      </c>
+      <c r="I38" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>440</v>
+      </c>
+      <c r="B39" t="s">
+        <v>166</v>
+      </c>
+      <c r="C39" t="s">
+        <v>167</v>
+      </c>
+      <c r="D39" s="1">
+        <v>29491</v>
+      </c>
+      <c r="E39" t="s">
+        <v>168</v>
+      </c>
+      <c r="F39" t="s">
         <v>36</v>
       </c>
-      <c r="B37" t="s">
-        <v>21</v>
-      </c>
-      <c r="C37" t="s">
-        <v>191</v>
-      </c>
-      <c r="D37" s="1">
-        <v>28660</v>
-      </c>
-      <c r="E37" t="s">
-        <v>192</v>
-      </c>
-      <c r="F37" t="s">
-        <v>55</v>
-      </c>
-      <c r="G37">
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39" t="s">
+        <v>169</v>
+      </c>
+      <c r="I39" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>569</v>
+      </c>
+      <c r="B40" t="s">
+        <v>137</v>
+      </c>
+      <c r="C40" t="s">
+        <v>301</v>
+      </c>
+      <c r="D40" s="1">
+        <v>27173</v>
+      </c>
+      <c r="E40" t="s">
+        <v>570</v>
+      </c>
+      <c r="F40" t="s">
+        <v>79</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40" t="s">
+        <v>571</v>
+      </c>
+      <c r="I40" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>566</v>
+      </c>
+      <c r="B41" t="s">
+        <v>243</v>
+      </c>
+      <c r="C41" t="s">
+        <v>220</v>
+      </c>
+      <c r="D41" s="1">
+        <v>32248</v>
+      </c>
+      <c r="E41" t="s">
+        <v>41</v>
+      </c>
+      <c r="F41" t="s">
+        <v>36</v>
+      </c>
+      <c r="G41">
         <v>4</v>
       </c>
-      <c r="H37" t="s">
-        <v>193</v>
-      </c>
-      <c r="I37" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <v>37</v>
-      </c>
-      <c r="B38" t="s">
-        <v>65</v>
-      </c>
-      <c r="C38" t="s">
-        <v>195</v>
-      </c>
-      <c r="D38" s="1">
-        <v>34542</v>
-      </c>
-      <c r="E38" t="s">
-        <v>196</v>
-      </c>
-      <c r="F38" t="s">
-        <v>24</v>
-      </c>
-      <c r="G38">
-        <v>1</v>
-      </c>
-      <c r="H38" t="s">
-        <v>197</v>
-      </c>
-      <c r="I38" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39">
-        <v>38</v>
-      </c>
-      <c r="B39" t="s">
-        <v>9</v>
-      </c>
-      <c r="C39" t="s">
-        <v>47</v>
-      </c>
-      <c r="D39" s="1">
-        <v>23233</v>
-      </c>
-      <c r="E39" t="s">
-        <v>199</v>
-      </c>
-      <c r="F39" t="s">
-        <v>79</v>
-      </c>
-      <c r="G39">
-        <v>2</v>
-      </c>
-      <c r="H39" t="s">
-        <v>200</v>
-      </c>
-      <c r="I39" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40">
-        <v>39</v>
-      </c>
-      <c r="B40" t="s">
-        <v>39</v>
-      </c>
-      <c r="C40" t="s">
-        <v>202</v>
-      </c>
-      <c r="D40" s="1">
-        <v>31305</v>
-      </c>
-      <c r="E40" t="s">
-        <v>203</v>
-      </c>
-      <c r="F40" t="s">
-        <v>36</v>
-      </c>
-      <c r="G40" t="s">
-        <v>43</v>
-      </c>
-      <c r="H40" t="s">
-        <v>204</v>
-      </c>
-      <c r="I40" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41">
-        <v>40</v>
-      </c>
-      <c r="B41" t="s">
-        <v>206</v>
-      </c>
-      <c r="C41" t="s">
-        <v>207</v>
-      </c>
-      <c r="D41" s="1">
-        <v>37187</v>
-      </c>
-      <c r="E41" t="s">
-        <v>208</v>
-      </c>
-      <c r="F41" t="s">
-        <v>49</v>
-      </c>
-      <c r="G41" t="s">
-        <v>56</v>
-      </c>
       <c r="H41" t="s">
-        <v>209</v>
+        <v>567</v>
       </c>
       <c r="I41" t="s">
-        <v>210</v>
+        <v>568</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42">
-        <v>41</v>
+      <c r="A42" t="s">
+        <v>484</v>
       </c>
       <c r="B42" t="s">
-        <v>211</v>
+        <v>238</v>
       </c>
       <c r="C42" t="s">
-        <v>212</v>
+        <v>340</v>
       </c>
       <c r="D42" s="1">
-        <v>29164</v>
+        <v>28636</v>
       </c>
       <c r="E42" t="s">
-        <v>213</v>
+        <v>341</v>
       </c>
       <c r="F42" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G42">
         <v>1</v>
       </c>
       <c r="H42" t="s">
-        <v>214</v>
+        <v>342</v>
       </c>
       <c r="I42" t="s">
-        <v>215</v>
+        <v>343</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A43">
-        <v>42</v>
+      <c r="A43" t="s">
+        <v>442</v>
       </c>
       <c r="B43" t="s">
-        <v>15</v>
+        <v>175</v>
       </c>
       <c r="C43" t="s">
-        <v>216</v>
+        <v>176</v>
       </c>
       <c r="D43" s="1">
-        <v>31760</v>
+        <v>27441</v>
       </c>
       <c r="E43" t="s">
-        <v>89</v>
+        <v>177</v>
       </c>
       <c r="F43" t="s">
-        <v>62</v>
+        <v>18</v>
       </c>
       <c r="G43">
         <v>2</v>
       </c>
       <c r="H43" t="s">
-        <v>217</v>
+        <v>178</v>
       </c>
       <c r="I43" t="s">
-        <v>218</v>
+        <v>179</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A44">
+      <c r="A44" t="s">
+        <v>433</v>
+      </c>
+      <c r="B44" t="s">
+        <v>132</v>
+      </c>
+      <c r="C44" t="s">
+        <v>133</v>
+      </c>
+      <c r="D44" s="1">
+        <v>36217</v>
+      </c>
+      <c r="E44" t="s">
+        <v>134</v>
+      </c>
+      <c r="F44" t="s">
+        <v>79</v>
+      </c>
+      <c r="G44" t="s">
         <v>43</v>
       </c>
-      <c r="B44" t="s">
-        <v>219</v>
-      </c>
-      <c r="C44" t="s">
-        <v>220</v>
-      </c>
-      <c r="D44" s="1">
-        <v>36547</v>
-      </c>
-      <c r="E44" t="s">
-        <v>221</v>
-      </c>
-      <c r="F44" t="s">
-        <v>18</v>
-      </c>
-      <c r="G44">
-        <v>1</v>
-      </c>
       <c r="H44" t="s">
-        <v>222</v>
+        <v>135</v>
       </c>
       <c r="I44" t="s">
-        <v>223</v>
+        <v>136</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A45">
-        <v>44</v>
+      <c r="A45" t="s">
+        <v>859</v>
       </c>
       <c r="B45" t="s">
-        <v>224</v>
+        <v>860</v>
       </c>
       <c r="C45" t="s">
-        <v>225</v>
+        <v>861</v>
       </c>
       <c r="D45" s="1">
-        <v>24879</v>
+        <v>32679</v>
       </c>
       <c r="E45" t="s">
-        <v>226</v>
+        <v>856</v>
       </c>
       <c r="F45" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G45">
+        <v>5</v>
+      </c>
+      <c r="H45" t="s">
+        <v>862</v>
+      </c>
+      <c r="I45" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>616</v>
+      </c>
+      <c r="B46" t="s">
+        <v>348</v>
+      </c>
+      <c r="C46" t="s">
+        <v>617</v>
+      </c>
+      <c r="D46" s="1">
+        <v>32981</v>
+      </c>
+      <c r="E46" t="s">
+        <v>618</v>
+      </c>
+      <c r="F46" t="s">
+        <v>79</v>
+      </c>
+      <c r="G46">
+        <v>2</v>
+      </c>
+      <c r="H46" t="s">
+        <v>619</v>
+      </c>
+      <c r="I46" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>465</v>
+      </c>
+      <c r="B47" t="s">
+        <v>39</v>
+      </c>
+      <c r="C47" t="s">
+        <v>273</v>
+      </c>
+      <c r="D47" s="1">
+        <v>31331</v>
+      </c>
+      <c r="E47" t="s">
+        <v>168</v>
+      </c>
+      <c r="F47" t="s">
+        <v>90</v>
+      </c>
+      <c r="G47">
         <v>3</v>
       </c>
-      <c r="H45" t="s">
-        <v>227</v>
-      </c>
-      <c r="I45" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A46">
-        <v>45</v>
-      </c>
-      <c r="B46" t="s">
-        <v>46</v>
-      </c>
-      <c r="C46" t="s">
-        <v>229</v>
-      </c>
-      <c r="D46" s="1">
-        <v>35493</v>
-      </c>
-      <c r="E46" t="s">
-        <v>230</v>
-      </c>
-      <c r="F46" t="s">
-        <v>90</v>
-      </c>
-      <c r="G46">
-        <v>1</v>
-      </c>
-      <c r="H46" t="s">
-        <v>231</v>
-      </c>
-      <c r="I46" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A47">
-        <v>46</v>
-      </c>
-      <c r="B47" t="s">
-        <v>233</v>
-      </c>
-      <c r="C47" t="s">
-        <v>234</v>
-      </c>
-      <c r="D47" s="1">
-        <v>26406</v>
-      </c>
-      <c r="E47" t="s">
-        <v>235</v>
-      </c>
-      <c r="F47" t="s">
-        <v>55</v>
-      </c>
-      <c r="G47">
-        <v>5</v>
-      </c>
       <c r="H47" t="s">
-        <v>236</v>
+        <v>274</v>
       </c>
       <c r="I47" t="s">
-        <v>237</v>
+        <v>275</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A48">
-        <v>47</v>
+      <c r="A48" t="s">
+        <v>721</v>
       </c>
       <c r="B48" t="s">
-        <v>238</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>239</v>
+        <v>722</v>
       </c>
       <c r="D48" s="1">
-        <v>30099</v>
+        <v>29027</v>
       </c>
       <c r="E48" t="s">
-        <v>240</v>
+        <v>321</v>
       </c>
       <c r="F48" t="s">
         <v>24</v>
       </c>
-      <c r="G48">
+      <c r="G48" t="s">
+        <v>43</v>
+      </c>
+      <c r="H48" t="s">
+        <v>723</v>
+      </c>
+      <c r="I48" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>447</v>
+      </c>
+      <c r="B49" t="s">
+        <v>65</v>
+      </c>
+      <c r="C49" t="s">
+        <v>195</v>
+      </c>
+      <c r="D49" s="1">
+        <v>34542</v>
+      </c>
+      <c r="E49" t="s">
+        <v>196</v>
+      </c>
+      <c r="F49" t="s">
+        <v>24</v>
+      </c>
+      <c r="G49">
         <v>1</v>
       </c>
-      <c r="H48" t="s">
-        <v>241</v>
-      </c>
-      <c r="I48" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A49">
-        <v>48</v>
-      </c>
-      <c r="B49" t="s">
-        <v>243</v>
-      </c>
-      <c r="C49" t="s">
-        <v>244</v>
-      </c>
-      <c r="D49" s="1">
-        <v>21710</v>
-      </c>
-      <c r="E49" t="s">
-        <v>245</v>
-      </c>
-      <c r="F49" t="s">
-        <v>79</v>
-      </c>
-      <c r="G49">
+      <c r="H49" t="s">
+        <v>197</v>
+      </c>
+      <c r="I49" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>680</v>
+      </c>
+      <c r="B50" t="s">
+        <v>681</v>
+      </c>
+      <c r="C50" t="s">
+        <v>10</v>
+      </c>
+      <c r="D50" s="1">
+        <v>36399</v>
+      </c>
+      <c r="E50" t="s">
+        <v>613</v>
+      </c>
+      <c r="F50" t="s">
+        <v>30</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
+      <c r="H50" t="s">
+        <v>682</v>
+      </c>
+      <c r="I50" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>611</v>
+      </c>
+      <c r="B51" t="s">
+        <v>65</v>
+      </c>
+      <c r="C51" t="s">
+        <v>612</v>
+      </c>
+      <c r="D51" s="1">
+        <v>31846</v>
+      </c>
+      <c r="E51" t="s">
+        <v>613</v>
+      </c>
+      <c r="F51" t="s">
+        <v>55</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+      <c r="H51" t="s">
+        <v>614</v>
+      </c>
+      <c r="I51" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>475</v>
+      </c>
+      <c r="B52" t="s">
+        <v>308</v>
+      </c>
+      <c r="C52" t="s">
+        <v>309</v>
+      </c>
+      <c r="D52" s="1">
+        <v>37470</v>
+      </c>
+      <c r="E52" t="s">
+        <v>23</v>
+      </c>
+      <c r="F52" t="s">
+        <v>18</v>
+      </c>
+      <c r="G52">
+        <v>3</v>
+      </c>
+      <c r="H52" t="s">
+        <v>310</v>
+      </c>
+      <c r="I52" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>818</v>
+      </c>
+      <c r="B53" t="s">
+        <v>819</v>
+      </c>
+      <c r="C53" t="s">
+        <v>820</v>
+      </c>
+      <c r="D53" s="1">
+        <v>34758</v>
+      </c>
+      <c r="E53" t="s">
+        <v>821</v>
+      </c>
+      <c r="F53" t="s">
+        <v>30</v>
+      </c>
+      <c r="G53" t="s">
+        <v>56</v>
+      </c>
+      <c r="H53" t="s">
+        <v>822</v>
+      </c>
+      <c r="I53" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>498</v>
+      </c>
+      <c r="B54" t="s">
+        <v>39</v>
+      </c>
+      <c r="C54" t="s">
+        <v>133</v>
+      </c>
+      <c r="D54" s="1">
+        <v>30135</v>
+      </c>
+      <c r="E54" t="s">
+        <v>181</v>
+      </c>
+      <c r="F54" t="s">
+        <v>18</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
+      </c>
+      <c r="H54" t="s">
+        <v>389</v>
+      </c>
+      <c r="I54" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>418</v>
+      </c>
+      <c r="B55" t="s">
+        <v>52</v>
+      </c>
+      <c r="C55" t="s">
+        <v>53</v>
+      </c>
+      <c r="D55" s="1">
+        <v>20441</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F55" t="s">
+        <v>55</v>
+      </c>
+      <c r="G55" t="s">
+        <v>56</v>
+      </c>
+      <c r="H55" t="s">
+        <v>57</v>
+      </c>
+      <c r="I55" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>638</v>
+      </c>
+      <c r="B56" t="s">
+        <v>147</v>
+      </c>
+      <c r="C56" t="s">
+        <v>157</v>
+      </c>
+      <c r="D56" s="1">
+        <v>31320</v>
+      </c>
+      <c r="E56" t="s">
+        <v>185</v>
+      </c>
+      <c r="F56" t="s">
+        <v>62</v>
+      </c>
+      <c r="G56">
         <v>2</v>
       </c>
-      <c r="H49" t="s">
-        <v>246</v>
-      </c>
-      <c r="I49" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A50">
+      <c r="H56" t="s">
+        <v>639</v>
+      </c>
+      <c r="I56" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>481</v>
+      </c>
+      <c r="B57" t="s">
+        <v>329</v>
+      </c>
+      <c r="C57" t="s">
+        <v>330</v>
+      </c>
+      <c r="D57" s="1">
+        <v>31471</v>
+      </c>
+      <c r="E57" t="s">
+        <v>331</v>
+      </c>
+      <c r="F57" t="s">
+        <v>36</v>
+      </c>
+      <c r="G57" t="s">
+        <v>56</v>
+      </c>
+      <c r="H57" t="s">
+        <v>332</v>
+      </c>
+      <c r="I57" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>429</v>
+      </c>
+      <c r="B58" t="s">
+        <v>112</v>
+      </c>
+      <c r="C58" t="s">
+        <v>113</v>
+      </c>
+      <c r="D58" s="1">
+        <v>21776</v>
+      </c>
+      <c r="E58" t="s">
+        <v>114</v>
+      </c>
+      <c r="F58" t="s">
+        <v>18</v>
+      </c>
+      <c r="G58">
+        <v>2</v>
+      </c>
+      <c r="H58" t="s">
+        <v>115</v>
+      </c>
+      <c r="I58" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>725</v>
+      </c>
+      <c r="B59" t="s">
+        <v>59</v>
+      </c>
+      <c r="C59" t="s">
+        <v>340</v>
+      </c>
+      <c r="D59" s="1">
+        <v>37830</v>
+      </c>
+      <c r="E59" t="s">
+        <v>73</v>
+      </c>
+      <c r="F59" t="s">
         <v>49</v>
-      </c>
-      <c r="B50" t="s">
-        <v>248</v>
-      </c>
-      <c r="C50" t="s">
-        <v>249</v>
-      </c>
-      <c r="D50" s="1">
-        <v>34166</v>
-      </c>
-      <c r="E50" t="s">
-        <v>250</v>
-      </c>
-      <c r="F50" t="s">
-        <v>49</v>
-      </c>
-      <c r="G50" t="s">
-        <v>43</v>
-      </c>
-      <c r="H50" t="s">
-        <v>251</v>
-      </c>
-      <c r="I50" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A51">
-        <v>50</v>
-      </c>
-      <c r="B51" t="s">
-        <v>253</v>
-      </c>
-      <c r="C51" t="s">
-        <v>254</v>
-      </c>
-      <c r="D51" s="1">
-        <v>32014</v>
-      </c>
-      <c r="E51" t="s">
-        <v>255</v>
-      </c>
-      <c r="F51" t="s">
-        <v>36</v>
-      </c>
-      <c r="G51" t="s">
-        <v>56</v>
-      </c>
-      <c r="H51" t="s">
-        <v>256</v>
-      </c>
-      <c r="I51" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A52">
-        <v>51</v>
-      </c>
-      <c r="B52" t="s">
-        <v>258</v>
-      </c>
-      <c r="C52" t="s">
-        <v>10</v>
-      </c>
-      <c r="D52" s="1">
-        <v>32588</v>
-      </c>
-      <c r="E52" t="s">
-        <v>259</v>
-      </c>
-      <c r="F52" t="s">
-        <v>62</v>
-      </c>
-      <c r="G52" t="s">
-        <v>56</v>
-      </c>
-      <c r="H52" t="s">
-        <v>260</v>
-      </c>
-      <c r="I52" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A53">
-        <v>52</v>
-      </c>
-      <c r="B53" t="s">
-        <v>52</v>
-      </c>
-      <c r="C53" t="s">
-        <v>262</v>
-      </c>
-      <c r="D53" s="1">
-        <v>35261</v>
-      </c>
-      <c r="E53" t="s">
-        <v>104</v>
-      </c>
-      <c r="F53" t="s">
-        <v>79</v>
-      </c>
-      <c r="G53">
-        <v>1</v>
-      </c>
-      <c r="H53" t="s">
-        <v>263</v>
-      </c>
-      <c r="I53" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A54">
-        <v>53</v>
-      </c>
-      <c r="B54" t="s">
-        <v>21</v>
-      </c>
-      <c r="C54" t="s">
-        <v>265</v>
-      </c>
-      <c r="D54" s="1">
-        <v>29457</v>
-      </c>
-      <c r="E54" t="s">
-        <v>266</v>
-      </c>
-      <c r="F54" t="s">
-        <v>36</v>
-      </c>
-      <c r="G54">
-        <v>2</v>
-      </c>
-      <c r="H54" t="s">
-        <v>267</v>
-      </c>
-      <c r="I54" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A55">
-        <v>54</v>
-      </c>
-      <c r="B55" t="s">
-        <v>9</v>
-      </c>
-      <c r="C55" t="s">
-        <v>269</v>
-      </c>
-      <c r="D55" s="1">
-        <v>27638</v>
-      </c>
-      <c r="E55" t="s">
-        <v>270</v>
-      </c>
-      <c r="F55" t="s">
-        <v>30</v>
-      </c>
-      <c r="G55">
-        <v>1</v>
-      </c>
-      <c r="H55" t="s">
-        <v>271</v>
-      </c>
-      <c r="I55" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A56">
-        <v>55</v>
-      </c>
-      <c r="B56" t="s">
-        <v>39</v>
-      </c>
-      <c r="C56" t="s">
-        <v>273</v>
-      </c>
-      <c r="D56" s="1">
-        <v>31331</v>
-      </c>
-      <c r="E56" t="s">
-        <v>168</v>
-      </c>
-      <c r="F56" t="s">
-        <v>90</v>
-      </c>
-      <c r="G56">
-        <v>3</v>
-      </c>
-      <c r="H56" t="s">
-        <v>274</v>
-      </c>
-      <c r="I56" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A57">
-        <v>56</v>
-      </c>
-      <c r="B57" t="s">
-        <v>127</v>
-      </c>
-      <c r="C57" t="s">
-        <v>276</v>
-      </c>
-      <c r="D57" s="1">
-        <v>37565</v>
-      </c>
-      <c r="E57" t="s">
-        <v>277</v>
-      </c>
-      <c r="F57" t="s">
-        <v>18</v>
-      </c>
-      <c r="G57">
-        <v>1</v>
-      </c>
-      <c r="H57" t="s">
-        <v>278</v>
-      </c>
-      <c r="I57" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A58">
-        <v>57</v>
-      </c>
-      <c r="B58" t="s">
-        <v>175</v>
-      </c>
-      <c r="C58" t="s">
-        <v>280</v>
-      </c>
-      <c r="D58" s="1">
-        <v>25921</v>
-      </c>
-      <c r="E58" t="s">
-        <v>99</v>
-      </c>
-      <c r="F58" t="s">
-        <v>62</v>
-      </c>
-      <c r="G58">
-        <v>4</v>
-      </c>
-      <c r="H58" t="s">
-        <v>281</v>
-      </c>
-      <c r="I58" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A59">
-        <v>58</v>
-      </c>
-      <c r="B59" t="s">
-        <v>283</v>
-      </c>
-      <c r="C59" t="s">
-        <v>284</v>
-      </c>
-      <c r="D59" s="1">
-        <v>32903</v>
-      </c>
-      <c r="E59" t="s">
-        <v>203</v>
-      </c>
-      <c r="F59" t="s">
-        <v>55</v>
       </c>
       <c r="G59">
         <v>1</v>
       </c>
       <c r="H59" t="s">
-        <v>285</v>
+        <v>726</v>
       </c>
       <c r="I59" t="s">
-        <v>286</v>
+        <v>727</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A60">
-        <v>59</v>
+      <c r="A60" t="s">
+        <v>501</v>
       </c>
       <c r="B60" t="s">
-        <v>122</v>
+        <v>65</v>
       </c>
       <c r="C60" t="s">
-        <v>287</v>
+        <v>399</v>
       </c>
       <c r="D60" s="1">
-        <v>20128</v>
+        <v>33541</v>
       </c>
       <c r="E60" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="F60" t="s">
+        <v>36</v>
+      </c>
+      <c r="G60" t="s">
+        <v>56</v>
+      </c>
+      <c r="H60" t="s">
+        <v>400</v>
+      </c>
+      <c r="I60" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>457</v>
+      </c>
+      <c r="B61" t="s">
+        <v>238</v>
+      </c>
+      <c r="C61" t="s">
+        <v>239</v>
+      </c>
+      <c r="D61" s="1">
+        <v>30099</v>
+      </c>
+      <c r="E61" t="s">
+        <v>240</v>
+      </c>
+      <c r="F61" t="s">
         <v>24</v>
       </c>
-      <c r="G60">
+      <c r="G61">
+        <v>1</v>
+      </c>
+      <c r="H61" t="s">
+        <v>241</v>
+      </c>
+      <c r="I61" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>573</v>
+      </c>
+      <c r="B62" t="s">
+        <v>253</v>
+      </c>
+      <c r="C62" t="s">
+        <v>40</v>
+      </c>
+      <c r="D62" s="1">
+        <v>37415</v>
+      </c>
+      <c r="E62" t="s">
+        <v>574</v>
+      </c>
+      <c r="F62" t="s">
+        <v>55</v>
+      </c>
+      <c r="G62">
         <v>2</v>
       </c>
-      <c r="H60" t="s">
-        <v>288</v>
-      </c>
-      <c r="I60" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A61">
-        <v>60</v>
-      </c>
-      <c r="B61" t="s">
-        <v>59</v>
-      </c>
-      <c r="C61" t="s">
-        <v>290</v>
-      </c>
-      <c r="D61" s="1">
-        <v>34410</v>
-      </c>
-      <c r="E61" t="s">
-        <v>109</v>
-      </c>
-      <c r="F61" t="s">
-        <v>49</v>
-      </c>
-      <c r="G61" t="s">
-        <v>43</v>
-      </c>
-      <c r="H61" t="s">
-        <v>291</v>
-      </c>
-      <c r="I61" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A62">
-        <v>61</v>
-      </c>
-      <c r="B62" t="s">
-        <v>293</v>
-      </c>
-      <c r="C62" t="s">
-        <v>294</v>
-      </c>
-      <c r="D62" s="1">
-        <v>32260</v>
-      </c>
-      <c r="E62" t="s">
-        <v>11</v>
-      </c>
-      <c r="F62" t="s">
-        <v>79</v>
-      </c>
-      <c r="G62" t="s">
-        <v>56</v>
-      </c>
       <c r="H62" t="s">
-        <v>295</v>
+        <v>575</v>
       </c>
       <c r="I62" t="s">
-        <v>296</v>
+        <v>576</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A63">
-        <v>62</v>
+      <c r="A63" t="s">
+        <v>768</v>
       </c>
       <c r="B63" t="s">
-        <v>297</v>
+        <v>769</v>
       </c>
       <c r="C63" t="s">
-        <v>16</v>
+        <v>770</v>
       </c>
       <c r="D63" s="1">
-        <v>31903</v>
+        <v>31235</v>
       </c>
       <c r="E63" t="s">
-        <v>298</v>
+        <v>771</v>
       </c>
       <c r="F63" t="s">
         <v>36</v>
       </c>
       <c r="G63">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H63" t="s">
-        <v>299</v>
+        <v>772</v>
       </c>
       <c r="I63" t="s">
-        <v>300</v>
+        <v>773</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A64">
-        <v>63</v>
+      <c r="A64" t="s">
+        <v>454</v>
       </c>
       <c r="B64" t="s">
+        <v>224</v>
+      </c>
+      <c r="C64" t="s">
+        <v>225</v>
+      </c>
+      <c r="D64" s="1">
+        <v>24879</v>
+      </c>
+      <c r="E64" t="s">
+        <v>226</v>
+      </c>
+      <c r="F64" t="s">
+        <v>30</v>
+      </c>
+      <c r="G64">
+        <v>3</v>
+      </c>
+      <c r="H64" t="s">
+        <v>227</v>
+      </c>
+      <c r="I64" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>490</v>
+      </c>
+      <c r="B65" t="s">
+        <v>65</v>
+      </c>
+      <c r="C65" t="s">
+        <v>152</v>
+      </c>
+      <c r="D65" s="1">
+        <v>36120</v>
+      </c>
+      <c r="E65" t="s">
+        <v>364</v>
+      </c>
+      <c r="F65" t="s">
+        <v>55</v>
+      </c>
+      <c r="G65" t="s">
+        <v>43</v>
+      </c>
+      <c r="H65" t="s">
+        <v>365</v>
+      </c>
+      <c r="I65" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>413</v>
+      </c>
+      <c r="B66" t="s">
+        <v>21</v>
+      </c>
+      <c r="C66" t="s">
+        <v>22</v>
+      </c>
+      <c r="D66" s="1">
+        <v>35294</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F66" t="s">
+        <v>24</v>
+      </c>
+      <c r="G66">
+        <v>1</v>
+      </c>
+      <c r="H66" t="s">
+        <v>25</v>
+      </c>
+      <c r="I66" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>471</v>
+      </c>
+      <c r="B67" t="s">
+        <v>293</v>
+      </c>
+      <c r="C67" t="s">
+        <v>294</v>
+      </c>
+      <c r="D67" s="1">
+        <v>32260</v>
+      </c>
+      <c r="E67" t="s">
+        <v>11</v>
+      </c>
+      <c r="F67" t="s">
+        <v>79</v>
+      </c>
+      <c r="G67" t="s">
+        <v>56</v>
+      </c>
+      <c r="H67" t="s">
+        <v>295</v>
+      </c>
+      <c r="I67" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>621</v>
+      </c>
+      <c r="B68" t="s">
+        <v>622</v>
+      </c>
+      <c r="C68" t="s">
+        <v>623</v>
+      </c>
+      <c r="D68" s="1">
+        <v>30097</v>
+      </c>
+      <c r="E68" t="s">
+        <v>624</v>
+      </c>
+      <c r="F68" t="s">
+        <v>90</v>
+      </c>
+      <c r="G68">
+        <v>3</v>
+      </c>
+      <c r="H68" t="s">
+        <v>625</v>
+      </c>
+      <c r="I68" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>824</v>
+      </c>
+      <c r="B69" t="s">
+        <v>825</v>
+      </c>
+      <c r="C69" t="s">
+        <v>826</v>
+      </c>
+      <c r="D69" s="1">
+        <v>30691</v>
+      </c>
+      <c r="E69" t="s">
+        <v>827</v>
+      </c>
+      <c r="F69" t="s">
+        <v>12</v>
+      </c>
+      <c r="G69" t="s">
+        <v>56</v>
+      </c>
+      <c r="H69" t="s">
+        <v>828</v>
+      </c>
+      <c r="I69" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>459</v>
+      </c>
+      <c r="B70" t="s">
         <v>248</v>
       </c>
-      <c r="C64" t="s">
-        <v>301</v>
-      </c>
-      <c r="D64" s="1">
-        <v>33404</v>
-      </c>
-      <c r="E64" t="s">
-        <v>302</v>
-      </c>
-      <c r="F64" t="s">
-        <v>79</v>
-      </c>
-      <c r="G64">
-        <v>2</v>
-      </c>
-      <c r="H64" t="s">
-        <v>303</v>
-      </c>
-      <c r="I64" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A65">
-        <v>64</v>
-      </c>
-      <c r="B65" t="s">
-        <v>253</v>
-      </c>
-      <c r="C65" t="s">
-        <v>305</v>
-      </c>
-      <c r="D65" s="1">
-        <v>29059</v>
-      </c>
-      <c r="E65" t="s">
-        <v>240</v>
-      </c>
-      <c r="F65" t="s">
-        <v>24</v>
-      </c>
-      <c r="G65">
-        <v>1</v>
-      </c>
-      <c r="H65" t="s">
-        <v>306</v>
-      </c>
-      <c r="I65" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A66">
-        <v>65</v>
-      </c>
-      <c r="B66" t="s">
-        <v>308</v>
-      </c>
-      <c r="C66" t="s">
-        <v>309</v>
-      </c>
-      <c r="D66" s="1">
-        <v>37470</v>
-      </c>
-      <c r="E66" t="s">
-        <v>23</v>
-      </c>
-      <c r="F66" t="s">
-        <v>18</v>
-      </c>
-      <c r="G66">
-        <v>3</v>
-      </c>
-      <c r="H66" t="s">
-        <v>310</v>
-      </c>
-      <c r="I66" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A67">
-        <v>66</v>
-      </c>
-      <c r="B67" t="s">
-        <v>219</v>
-      </c>
-      <c r="C67" t="s">
-        <v>40</v>
-      </c>
-      <c r="D67" s="1">
-        <v>34588</v>
-      </c>
-      <c r="E67" t="s">
-        <v>230</v>
-      </c>
-      <c r="F67" t="s">
-        <v>55</v>
-      </c>
-      <c r="G67">
-        <v>1</v>
-      </c>
-      <c r="H67" t="s">
-        <v>312</v>
-      </c>
-      <c r="I67" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A68">
-        <v>67</v>
-      </c>
-      <c r="B68" t="s">
-        <v>314</v>
-      </c>
-      <c r="C68" t="s">
-        <v>138</v>
-      </c>
-      <c r="D68" s="1">
-        <v>25131</v>
-      </c>
-      <c r="E68" t="s">
-        <v>315</v>
-      </c>
-      <c r="F68" t="s">
-        <v>30</v>
-      </c>
-      <c r="G68">
-        <v>4</v>
-      </c>
-      <c r="H68" t="s">
-        <v>316</v>
-      </c>
-      <c r="I68" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A69">
-        <v>68</v>
-      </c>
-      <c r="B69" t="s">
-        <v>243</v>
-      </c>
-      <c r="C69" t="s">
-        <v>318</v>
-      </c>
-      <c r="D69" s="1">
-        <v>29555</v>
-      </c>
-      <c r="E69" t="s">
-        <v>213</v>
-      </c>
-      <c r="F69" t="s">
-        <v>62</v>
-      </c>
-      <c r="G69">
-        <v>1</v>
-      </c>
-      <c r="H69" t="s">
-        <v>319</v>
-      </c>
-      <c r="I69" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A70">
-        <v>69</v>
-      </c>
-      <c r="B70" t="s">
-        <v>184</v>
-      </c>
       <c r="C70" t="s">
-        <v>216</v>
+        <v>249</v>
       </c>
       <c r="D70" s="1">
-        <v>28468</v>
+        <v>34166</v>
       </c>
       <c r="E70" t="s">
-        <v>321</v>
+        <v>250</v>
       </c>
       <c r="F70" t="s">
         <v>49</v>
       </c>
-      <c r="G70">
-        <v>2</v>
+      <c r="G70" t="s">
+        <v>43</v>
       </c>
       <c r="H70" t="s">
-        <v>322</v>
+        <v>251</v>
       </c>
       <c r="I70" t="s">
-        <v>323</v>
+        <v>252</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A71">
-        <v>70</v>
+      <c r="A71" t="s">
+        <v>486</v>
       </c>
       <c r="B71" t="s">
-        <v>324</v>
+        <v>348</v>
       </c>
       <c r="C71" t="s">
-        <v>325</v>
+        <v>349</v>
       </c>
       <c r="D71" s="1">
-        <v>36544</v>
+        <v>34164</v>
       </c>
       <c r="E71" t="s">
-        <v>326</v>
+        <v>350</v>
       </c>
       <c r="F71" t="s">
+        <v>24</v>
+      </c>
+      <c r="G71">
+        <v>1</v>
+      </c>
+      <c r="H71" t="s">
+        <v>351</v>
+      </c>
+      <c r="I71" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>534</v>
+      </c>
+      <c r="B72" t="s">
+        <v>233</v>
+      </c>
+      <c r="C72" t="s">
+        <v>535</v>
+      </c>
+      <c r="D72" s="1">
+        <v>31683</v>
+      </c>
+      <c r="E72" t="s">
+        <v>315</v>
+      </c>
+      <c r="F72" t="s">
+        <v>55</v>
+      </c>
+      <c r="G72">
+        <v>3</v>
+      </c>
+      <c r="H72" t="s">
+        <v>536</v>
+      </c>
+      <c r="I72" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>438</v>
+      </c>
+      <c r="B73" t="s">
+        <v>156</v>
+      </c>
+      <c r="C73" t="s">
+        <v>157</v>
+      </c>
+      <c r="D73" s="1">
+        <v>25764</v>
+      </c>
+      <c r="E73" t="s">
+        <v>158</v>
+      </c>
+      <c r="F73" t="s">
         <v>90</v>
       </c>
-      <c r="G71" t="s">
-        <v>43</v>
-      </c>
-      <c r="H71" t="s">
-        <v>327</v>
-      </c>
-      <c r="I71" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A72">
-        <v>71</v>
-      </c>
-      <c r="B72" t="s">
-        <v>329</v>
-      </c>
-      <c r="C72" t="s">
-        <v>330</v>
-      </c>
-      <c r="D72" s="1">
-        <v>31471</v>
-      </c>
-      <c r="E72" t="s">
-        <v>331</v>
-      </c>
-      <c r="F72" t="s">
-        <v>36</v>
-      </c>
-      <c r="G72" t="s">
+      <c r="G73" t="s">
         <v>56</v>
       </c>
-      <c r="H72" t="s">
-        <v>332</v>
-      </c>
-      <c r="I72" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A73">
-        <v>72</v>
-      </c>
-      <c r="B73" t="s">
-        <v>211</v>
-      </c>
-      <c r="C73" t="s">
-        <v>334</v>
-      </c>
-      <c r="D73" s="1">
-        <v>30017</v>
-      </c>
-      <c r="E73" t="s">
-        <v>29</v>
-      </c>
-      <c r="F73" t="s">
-        <v>18</v>
-      </c>
-      <c r="G73">
+      <c r="H73" t="s">
+        <v>159</v>
+      </c>
+      <c r="I73" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>763</v>
+      </c>
+      <c r="B74" t="s">
+        <v>764</v>
+      </c>
+      <c r="C74" t="s">
+        <v>180</v>
+      </c>
+      <c r="D74" s="1">
+        <v>36706</v>
+      </c>
+      <c r="E74" t="s">
+        <v>765</v>
+      </c>
+      <c r="F74" t="s">
+        <v>24</v>
+      </c>
+      <c r="G74">
         <v>1</v>
       </c>
-      <c r="H73" t="s">
-        <v>335</v>
-      </c>
-      <c r="I73" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A74">
-        <v>73</v>
-      </c>
-      <c r="B74" t="s">
-        <v>27</v>
-      </c>
-      <c r="C74" t="s">
-        <v>337</v>
-      </c>
-      <c r="D74" s="1">
-        <v>34805</v>
-      </c>
-      <c r="E74" t="s">
-        <v>158</v>
-      </c>
-      <c r="F74" t="s">
-        <v>79</v>
-      </c>
-      <c r="G74">
-        <v>2</v>
-      </c>
       <c r="H74" t="s">
-        <v>338</v>
+        <v>766</v>
       </c>
       <c r="I74" t="s">
-        <v>339</v>
+        <v>767</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A75">
-        <v>74</v>
+      <c r="A75" t="s">
+        <v>595</v>
       </c>
       <c r="B75" t="s">
-        <v>238</v>
+        <v>52</v>
       </c>
       <c r="C75" t="s">
-        <v>340</v>
+        <v>399</v>
       </c>
       <c r="D75" s="1">
-        <v>28636</v>
+        <v>31007</v>
       </c>
       <c r="E75" t="s">
-        <v>341</v>
+        <v>596</v>
       </c>
       <c r="F75" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="G75">
         <v>1</v>
       </c>
       <c r="H75" t="s">
-        <v>342</v>
+        <v>597</v>
       </c>
       <c r="I75" t="s">
-        <v>343</v>
+        <v>598</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A76">
-        <v>75</v>
+      <c r="A76" t="s">
+        <v>791</v>
       </c>
       <c r="B76" t="s">
-        <v>147</v>
+        <v>792</v>
       </c>
       <c r="C76" t="s">
-        <v>344</v>
+        <v>28</v>
       </c>
       <c r="D76" s="1">
-        <v>37046</v>
+        <v>32865</v>
       </c>
       <c r="E76" t="s">
-        <v>345</v>
+        <v>793</v>
       </c>
       <c r="F76" t="s">
-        <v>90</v>
+        <v>24</v>
       </c>
       <c r="G76">
         <v>3</v>
       </c>
       <c r="H76" t="s">
-        <v>346</v>
+        <v>794</v>
       </c>
       <c r="I76" t="s">
-        <v>347</v>
+        <v>795</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A77">
-        <v>76</v>
+      <c r="A77" t="s">
+        <v>491</v>
       </c>
       <c r="B77" t="s">
-        <v>348</v>
+        <v>367</v>
       </c>
       <c r="C77" t="s">
-        <v>349</v>
+        <v>10</v>
       </c>
       <c r="D77" s="1">
-        <v>34164</v>
+        <v>32843</v>
       </c>
       <c r="E77" t="s">
-        <v>350</v>
+        <v>199</v>
       </c>
       <c r="F77" t="s">
-        <v>24</v>
-      </c>
-      <c r="G77">
-        <v>1</v>
+        <v>18</v>
+      </c>
+      <c r="G77" t="s">
+        <v>56</v>
       </c>
       <c r="H77" t="s">
-        <v>351</v>
+        <v>368</v>
       </c>
       <c r="I77" t="s">
-        <v>352</v>
+        <v>369</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A78">
-        <v>77</v>
+      <c r="A78" t="s">
+        <v>467</v>
       </c>
       <c r="B78" t="s">
-        <v>353</v>
+        <v>175</v>
       </c>
       <c r="C78" t="s">
-        <v>148</v>
+        <v>280</v>
       </c>
       <c r="D78" s="1">
-        <v>25438</v>
+        <v>25921</v>
       </c>
       <c r="E78" t="s">
-        <v>354</v>
+        <v>99</v>
       </c>
       <c r="F78" t="s">
         <v>62</v>
@@ -3893,477 +5304,2887 @@
         <v>4</v>
       </c>
       <c r="H78" t="s">
-        <v>355</v>
+        <v>281</v>
       </c>
       <c r="I78" t="s">
-        <v>356</v>
+        <v>282</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A79">
-        <v>78</v>
+      <c r="A79" t="s">
+        <v>830</v>
       </c>
       <c r="B79" t="s">
-        <v>46</v>
+        <v>831</v>
       </c>
       <c r="C79" t="s">
-        <v>357</v>
+        <v>832</v>
       </c>
       <c r="D79" s="1">
-        <v>29831</v>
+        <v>33559</v>
       </c>
       <c r="E79" t="s">
-        <v>358</v>
+        <v>833</v>
       </c>
       <c r="F79" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="G79">
+        <v>5</v>
+      </c>
+      <c r="H79" t="s">
+        <v>834</v>
+      </c>
+      <c r="I79" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>424</v>
+      </c>
+      <c r="B80" t="s">
+        <v>87</v>
+      </c>
+      <c r="C80" t="s">
+        <v>88</v>
+      </c>
+      <c r="D80" s="1">
+        <v>28565</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F80" t="s">
+        <v>90</v>
+      </c>
+      <c r="G80">
+        <v>3</v>
+      </c>
+      <c r="H80" t="s">
+        <v>91</v>
+      </c>
+      <c r="I80" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>441</v>
+      </c>
+      <c r="B81" t="s">
+        <v>33</v>
+      </c>
+      <c r="C81" t="s">
+        <v>171</v>
+      </c>
+      <c r="D81" s="1">
+        <v>32453</v>
+      </c>
+      <c r="E81" t="s">
+        <v>172</v>
+      </c>
+      <c r="F81" t="s">
+        <v>12</v>
+      </c>
+      <c r="G81">
         <v>1</v>
       </c>
-      <c r="H79" t="s">
-        <v>359</v>
-      </c>
-      <c r="I79" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A80">
-        <v>79</v>
-      </c>
-      <c r="B80" t="s">
-        <v>33</v>
-      </c>
-      <c r="C80" t="s">
-        <v>157</v>
-      </c>
-      <c r="D80" s="1">
-        <v>28044</v>
-      </c>
-      <c r="E80" t="s">
-        <v>361</v>
-      </c>
-      <c r="F80" t="s">
-        <v>49</v>
-      </c>
-      <c r="G80">
-        <v>2</v>
-      </c>
-      <c r="H80" t="s">
-        <v>362</v>
-      </c>
-      <c r="I80" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A81">
-        <v>80</v>
-      </c>
-      <c r="B81" t="s">
-        <v>65</v>
-      </c>
-      <c r="C81" t="s">
-        <v>152</v>
-      </c>
-      <c r="D81" s="1">
-        <v>36120</v>
-      </c>
-      <c r="E81" t="s">
-        <v>364</v>
-      </c>
-      <c r="F81" t="s">
-        <v>55</v>
-      </c>
-      <c r="G81" t="s">
-        <v>43</v>
-      </c>
       <c r="H81" t="s">
-        <v>365</v>
+        <v>173</v>
       </c>
       <c r="I81" t="s">
-        <v>366</v>
+        <v>174</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A82">
-        <v>81</v>
+      <c r="A82" t="s">
+        <v>688</v>
       </c>
       <c r="B82" t="s">
-        <v>367</v>
+        <v>219</v>
       </c>
       <c r="C82" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="D82" s="1">
-        <v>32843</v>
+        <v>28413</v>
       </c>
       <c r="E82" t="s">
-        <v>199</v>
+        <v>689</v>
       </c>
       <c r="F82" t="s">
         <v>18</v>
       </c>
-      <c r="G82" t="s">
-        <v>56</v>
+      <c r="G82">
+        <v>1</v>
       </c>
       <c r="H82" t="s">
-        <v>368</v>
+        <v>690</v>
       </c>
       <c r="I82" t="s">
-        <v>369</v>
+        <v>691</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A83">
-        <v>82</v>
+      <c r="A83" t="s">
+        <v>443</v>
       </c>
       <c r="B83" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="C83" t="s">
-        <v>370</v>
+        <v>180</v>
       </c>
       <c r="D83" s="1">
-        <v>32883</v>
+        <v>32956</v>
       </c>
       <c r="E83" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="F83" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="G83">
         <v>1</v>
       </c>
       <c r="H83" t="s">
-        <v>371</v>
+        <v>182</v>
       </c>
       <c r="I83" t="s">
-        <v>372</v>
+        <v>183</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A84">
-        <v>83</v>
+      <c r="A84" t="s">
+        <v>415</v>
       </c>
       <c r="B84" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="C84" t="s">
-        <v>373</v>
+        <v>34</v>
       </c>
       <c r="D84" s="1">
-        <v>32192</v>
-      </c>
-      <c r="E84" t="s">
-        <v>185</v>
+        <v>22188</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="F84" t="s">
         <v>36</v>
       </c>
       <c r="G84">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H84" t="s">
-        <v>374</v>
+        <v>37</v>
       </c>
       <c r="I84" t="s">
-        <v>375</v>
+        <v>38</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A85">
-        <v>84</v>
+      <c r="A85" t="s">
+        <v>512</v>
       </c>
       <c r="B85" t="s">
-        <v>52</v>
+        <v>248</v>
       </c>
       <c r="C85" t="s">
-        <v>229</v>
+        <v>513</v>
       </c>
       <c r="D85" s="1">
-        <v>29309</v>
+        <v>37348</v>
       </c>
       <c r="E85" t="s">
-        <v>17</v>
+        <v>73</v>
       </c>
       <c r="F85" t="s">
-        <v>90</v>
+        <v>62</v>
       </c>
       <c r="G85">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H85" t="s">
-        <v>376</v>
+        <v>514</v>
       </c>
       <c r="I85" t="s">
-        <v>377</v>
+        <v>515</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A86">
-        <v>85</v>
+      <c r="A86" t="s">
+        <v>747</v>
       </c>
       <c r="B86" t="s">
-        <v>21</v>
+        <v>748</v>
       </c>
       <c r="C86" t="s">
-        <v>378</v>
+        <v>77</v>
       </c>
       <c r="D86" s="1">
-        <v>37717</v>
+        <v>29424</v>
       </c>
       <c r="E86" t="s">
-        <v>379</v>
+        <v>331</v>
       </c>
       <c r="F86" t="s">
-        <v>24</v>
-      </c>
-      <c r="G86">
-        <v>3</v>
+        <v>18</v>
+      </c>
+      <c r="G86" t="s">
+        <v>43</v>
       </c>
       <c r="H86" t="s">
-        <v>380</v>
+        <v>749</v>
       </c>
       <c r="I86" t="s">
-        <v>381</v>
+        <v>750</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A87">
-        <v>86</v>
+      <c r="A87" t="s">
+        <v>466</v>
       </c>
       <c r="B87" t="s">
-        <v>27</v>
+        <v>127</v>
       </c>
       <c r="C87" t="s">
-        <v>382</v>
+        <v>276</v>
       </c>
       <c r="D87" s="1">
-        <v>35200</v>
+        <v>37565</v>
       </c>
       <c r="E87" t="s">
-        <v>94</v>
+        <v>277</v>
       </c>
       <c r="F87" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="G87">
         <v>1</v>
       </c>
       <c r="H87" t="s">
-        <v>383</v>
+        <v>278</v>
       </c>
       <c r="I87" t="s">
-        <v>384</v>
+        <v>279</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A88">
-        <v>87</v>
+      <c r="A88" t="s">
+        <v>493</v>
       </c>
       <c r="B88" t="s">
-        <v>33</v>
+        <v>59</v>
       </c>
       <c r="C88" t="s">
-        <v>385</v>
+        <v>373</v>
       </c>
       <c r="D88" s="1">
-        <v>25744</v>
+        <v>32192</v>
       </c>
       <c r="E88" t="s">
-        <v>386</v>
+        <v>185</v>
       </c>
       <c r="F88" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="G88">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H88" t="s">
-        <v>387</v>
+        <v>374</v>
       </c>
       <c r="I88" t="s">
-        <v>388</v>
+        <v>375</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A89">
-        <v>88</v>
+      <c r="A89" t="s">
+        <v>476</v>
       </c>
       <c r="B89" t="s">
-        <v>39</v>
+        <v>219</v>
       </c>
       <c r="C89" t="s">
-        <v>133</v>
+        <v>40</v>
       </c>
       <c r="D89" s="1">
-        <v>30135</v>
+        <v>34588</v>
       </c>
       <c r="E89" t="s">
-        <v>181</v>
+        <v>230</v>
       </c>
       <c r="F89" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="G89">
         <v>1</v>
       </c>
       <c r="H89" t="s">
-        <v>389</v>
+        <v>312</v>
       </c>
       <c r="I89" t="s">
-        <v>390</v>
+        <v>313</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A90">
+      <c r="A90" t="s">
+        <v>453</v>
+      </c>
+      <c r="B90" t="s">
+        <v>219</v>
+      </c>
+      <c r="C90" t="s">
+        <v>220</v>
+      </c>
+      <c r="D90" s="1">
+        <v>36547</v>
+      </c>
+      <c r="E90" t="s">
+        <v>221</v>
+      </c>
+      <c r="F90" t="s">
+        <v>18</v>
+      </c>
+      <c r="G90">
+        <v>1</v>
+      </c>
+      <c r="H90" t="s">
+        <v>222</v>
+      </c>
+      <c r="I90" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>665</v>
+      </c>
+      <c r="B91" t="s">
+        <v>666</v>
+      </c>
+      <c r="C91" t="s">
+        <v>294</v>
+      </c>
+      <c r="D91" s="1">
+        <v>32612</v>
+      </c>
+      <c r="E91" t="s">
         <v>89</v>
       </c>
-      <c r="B90" t="s">
-        <v>127</v>
-      </c>
-      <c r="C90" t="s">
-        <v>254</v>
-      </c>
-      <c r="D90" s="1">
-        <v>27618</v>
-      </c>
-      <c r="E90" t="s">
-        <v>391</v>
-      </c>
-      <c r="F90" t="s">
-        <v>49</v>
-      </c>
-      <c r="G90">
-        <v>2</v>
-      </c>
-      <c r="H90" t="s">
-        <v>392</v>
-      </c>
-      <c r="I90" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A91">
-        <v>90</v>
-      </c>
-      <c r="B91" t="s">
-        <v>394</v>
-      </c>
-      <c r="C91" t="s">
-        <v>395</v>
-      </c>
-      <c r="D91" s="1">
-        <v>36425</v>
-      </c>
-      <c r="E91" t="s">
-        <v>396</v>
-      </c>
       <c r="F91" t="s">
-        <v>55</v>
-      </c>
-      <c r="G91" t="s">
-        <v>43</v>
+        <v>18</v>
+      </c>
+      <c r="G91">
+        <v>1</v>
       </c>
       <c r="H91" t="s">
-        <v>397</v>
+        <v>667</v>
       </c>
       <c r="I91" t="s">
-        <v>398</v>
+        <v>668</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A92">
-        <v>91</v>
+      <c r="A92" t="s">
+        <v>430</v>
       </c>
       <c r="B92" t="s">
-        <v>65</v>
+        <v>117</v>
       </c>
       <c r="C92" t="s">
-        <v>399</v>
+        <v>118</v>
       </c>
       <c r="D92" s="1">
-        <v>33541</v>
+        <v>26199</v>
       </c>
       <c r="E92" t="s">
-        <v>61</v>
+        <v>119</v>
       </c>
       <c r="F92" t="s">
-        <v>36</v>
-      </c>
-      <c r="G92" t="s">
-        <v>56</v>
+        <v>12</v>
+      </c>
+      <c r="G92">
+        <v>1</v>
       </c>
       <c r="H92" t="s">
-        <v>400</v>
+        <v>120</v>
       </c>
       <c r="I92" t="s">
-        <v>401</v>
+        <v>121</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A93">
-        <v>92</v>
+      <c r="A93" t="s">
+        <v>728</v>
       </c>
       <c r="B93" t="s">
-        <v>402</v>
+        <v>729</v>
       </c>
       <c r="C93" t="s">
         <v>176</v>
       </c>
       <c r="D93" s="1">
+        <v>33459</v>
+      </c>
+      <c r="E93" t="s">
+        <v>379</v>
+      </c>
+      <c r="F93" t="s">
+        <v>79</v>
+      </c>
+      <c r="G93" t="s">
+        <v>56</v>
+      </c>
+      <c r="H93" t="s">
+        <v>730</v>
+      </c>
+      <c r="I93" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>556</v>
+      </c>
+      <c r="B94" t="s">
+        <v>557</v>
+      </c>
+      <c r="C94" t="s">
+        <v>53</v>
+      </c>
+      <c r="D94" s="1">
+        <v>36578</v>
+      </c>
+      <c r="E94" t="s">
+        <v>558</v>
+      </c>
+      <c r="F94" t="s">
+        <v>30</v>
+      </c>
+      <c r="G94">
+        <v>3</v>
+      </c>
+      <c r="H94" t="s">
+        <v>559</v>
+      </c>
+      <c r="I94" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>874</v>
+      </c>
+      <c r="B95" t="s">
+        <v>875</v>
+      </c>
+      <c r="C95" t="s">
+        <v>876</v>
+      </c>
+      <c r="D95" s="1">
+        <v>32412</v>
+      </c>
+      <c r="E95" t="s">
+        <v>877</v>
+      </c>
+      <c r="F95" t="s">
+        <v>62</v>
+      </c>
+      <c r="G95">
+        <v>5</v>
+      </c>
+      <c r="H95" t="s">
+        <v>878</v>
+      </c>
+      <c r="I95" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>419</v>
+      </c>
+      <c r="B96" t="s">
+        <v>59</v>
+      </c>
+      <c r="C96" t="s">
+        <v>60</v>
+      </c>
+      <c r="D96" s="1">
+        <v>37079</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F96" t="s">
+        <v>62</v>
+      </c>
+      <c r="G96">
+        <v>1</v>
+      </c>
+      <c r="H96" t="s">
+        <v>63</v>
+      </c>
+      <c r="I96" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>528</v>
+      </c>
+      <c r="B97" t="s">
+        <v>529</v>
+      </c>
+      <c r="C97" t="s">
+        <v>530</v>
+      </c>
+      <c r="D97" s="1">
+        <v>36021</v>
+      </c>
+      <c r="E97" t="s">
+        <v>531</v>
+      </c>
+      <c r="F97" t="s">
+        <v>79</v>
+      </c>
+      <c r="G97">
+        <v>2</v>
+      </c>
+      <c r="H97" t="s">
+        <v>532</v>
+      </c>
+      <c r="I97" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>774</v>
+      </c>
+      <c r="B98" t="s">
+        <v>775</v>
+      </c>
+      <c r="C98" t="s">
+        <v>40</v>
+      </c>
+      <c r="D98" s="1">
+        <v>35295</v>
+      </c>
+      <c r="E98" t="s">
+        <v>341</v>
+      </c>
+      <c r="F98" t="s">
+        <v>30</v>
+      </c>
+      <c r="G98">
+        <v>2</v>
+      </c>
+      <c r="H98" t="s">
+        <v>776</v>
+      </c>
+      <c r="I98" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>473</v>
+      </c>
+      <c r="B99" t="s">
+        <v>248</v>
+      </c>
+      <c r="C99" t="s">
+        <v>301</v>
+      </c>
+      <c r="D99" s="1">
+        <v>33404</v>
+      </c>
+      <c r="E99" t="s">
+        <v>302</v>
+      </c>
+      <c r="F99" t="s">
+        <v>79</v>
+      </c>
+      <c r="G99">
+        <v>2</v>
+      </c>
+      <c r="H99" t="s">
+        <v>303</v>
+      </c>
+      <c r="I99" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>608</v>
+      </c>
+      <c r="B100" t="s">
+        <v>394</v>
+      </c>
+      <c r="C100" t="s">
+        <v>340</v>
+      </c>
+      <c r="D100" s="1">
+        <v>34758</v>
+      </c>
+      <c r="E100" t="s">
+        <v>163</v>
+      </c>
+      <c r="F100" t="s">
+        <v>18</v>
+      </c>
+      <c r="G100">
+        <v>4</v>
+      </c>
+      <c r="H100" t="s">
+        <v>609</v>
+      </c>
+      <c r="I100" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>437</v>
+      </c>
+      <c r="B101" t="s">
+        <v>151</v>
+      </c>
+      <c r="C101" t="s">
+        <v>152</v>
+      </c>
+      <c r="D101" s="1">
+        <v>32670</v>
+      </c>
+      <c r="E101" t="s">
+        <v>153</v>
+      </c>
+      <c r="F101" t="s">
+        <v>55</v>
+      </c>
+      <c r="G101">
+        <v>1</v>
+      </c>
+      <c r="H101" t="s">
+        <v>154</v>
+      </c>
+      <c r="I101" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>458</v>
+      </c>
+      <c r="B102" t="s">
+        <v>243</v>
+      </c>
+      <c r="C102" t="s">
+        <v>244</v>
+      </c>
+      <c r="D102" s="1">
+        <v>21710</v>
+      </c>
+      <c r="E102" t="s">
+        <v>245</v>
+      </c>
+      <c r="F102" t="s">
+        <v>79</v>
+      </c>
+      <c r="G102">
+        <v>2</v>
+      </c>
+      <c r="H102" t="s">
+        <v>246</v>
+      </c>
+      <c r="I102" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>436</v>
+      </c>
+      <c r="B103" t="s">
+        <v>147</v>
+      </c>
+      <c r="C103" t="s">
+        <v>148</v>
+      </c>
+      <c r="D103" s="1">
+        <v>18413</v>
+      </c>
+      <c r="E103" t="s">
+        <v>35</v>
+      </c>
+      <c r="F103" t="s">
+        <v>49</v>
+      </c>
+      <c r="G103">
+        <v>4</v>
+      </c>
+      <c r="H103" t="s">
+        <v>149</v>
+      </c>
+      <c r="I103" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>547</v>
+      </c>
+      <c r="B104" t="s">
+        <v>122</v>
+      </c>
+      <c r="C104" t="s">
+        <v>180</v>
+      </c>
+      <c r="D104" s="1">
+        <v>35427</v>
+      </c>
+      <c r="E104" t="s">
+        <v>548</v>
+      </c>
+      <c r="F104" t="s">
+        <v>24</v>
+      </c>
+      <c r="G104">
+        <v>2</v>
+      </c>
+      <c r="H104" t="s">
+        <v>549</v>
+      </c>
+      <c r="I104" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>627</v>
+      </c>
+      <c r="B105" t="s">
+        <v>33</v>
+      </c>
+      <c r="C105" t="s">
+        <v>249</v>
+      </c>
+      <c r="D105" s="1">
+        <v>29011</v>
+      </c>
+      <c r="E105" t="s">
+        <v>396</v>
+      </c>
+      <c r="F105" t="s">
+        <v>49</v>
+      </c>
+      <c r="G105">
+        <v>1</v>
+      </c>
+      <c r="H105" t="s">
+        <v>628</v>
+      </c>
+      <c r="I105" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>704</v>
+      </c>
+      <c r="B106" t="s">
+        <v>705</v>
+      </c>
+      <c r="C106" t="s">
+        <v>706</v>
+      </c>
+      <c r="D106" s="1">
+        <v>36575</v>
+      </c>
+      <c r="E106" t="s">
+        <v>11</v>
+      </c>
+      <c r="F106" t="s">
+        <v>24</v>
+      </c>
+      <c r="G106">
+        <v>1</v>
+      </c>
+      <c r="H106" t="s">
+        <v>707</v>
+      </c>
+      <c r="I106" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>487</v>
+      </c>
+      <c r="B107" t="s">
+        <v>353</v>
+      </c>
+      <c r="C107" t="s">
+        <v>148</v>
+      </c>
+      <c r="D107" s="1">
+        <v>25438</v>
+      </c>
+      <c r="E107" t="s">
+        <v>354</v>
+      </c>
+      <c r="F107" t="s">
+        <v>62</v>
+      </c>
+      <c r="G107">
+        <v>4</v>
+      </c>
+      <c r="H107" t="s">
+        <v>355</v>
+      </c>
+      <c r="I107" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>507</v>
+      </c>
+      <c r="B108" t="s">
+        <v>15</v>
+      </c>
+      <c r="C108" t="s">
+        <v>508</v>
+      </c>
+      <c r="D108" s="1">
+        <v>28207</v>
+      </c>
+      <c r="E108" t="s">
+        <v>509</v>
+      </c>
+      <c r="F108" t="s">
+        <v>24</v>
+      </c>
+      <c r="G108">
+        <v>1</v>
+      </c>
+      <c r="H108" t="s">
+        <v>510</v>
+      </c>
+      <c r="I108" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>451</v>
+      </c>
+      <c r="B109" t="s">
+        <v>211</v>
+      </c>
+      <c r="C109" t="s">
+        <v>212</v>
+      </c>
+      <c r="D109" s="1">
+        <v>29164</v>
+      </c>
+      <c r="E109" t="s">
+        <v>213</v>
+      </c>
+      <c r="F109" t="s">
+        <v>36</v>
+      </c>
+      <c r="G109">
+        <v>1</v>
+      </c>
+      <c r="H109" t="s">
+        <v>214</v>
+      </c>
+      <c r="I109" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>713</v>
+      </c>
+      <c r="B110" t="s">
+        <v>714</v>
+      </c>
+      <c r="C110" t="s">
+        <v>273</v>
+      </c>
+      <c r="D110" s="1">
+        <v>32239</v>
+      </c>
+      <c r="E110" t="s">
+        <v>139</v>
+      </c>
+      <c r="F110" t="s">
+        <v>62</v>
+      </c>
+      <c r="G110">
+        <v>3</v>
+      </c>
+      <c r="H110" t="s">
+        <v>715</v>
+      </c>
+      <c r="I110" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>478</v>
+      </c>
+      <c r="B111" t="s">
+        <v>243</v>
+      </c>
+      <c r="C111" t="s">
+        <v>318</v>
+      </c>
+      <c r="D111" s="1">
+        <v>29555</v>
+      </c>
+      <c r="E111" t="s">
+        <v>213</v>
+      </c>
+      <c r="F111" t="s">
+        <v>62</v>
+      </c>
+      <c r="G111">
+        <v>1</v>
+      </c>
+      <c r="H111" t="s">
+        <v>319</v>
+      </c>
+      <c r="I111" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>411</v>
+      </c>
+      <c r="B112" t="s">
+        <v>9</v>
+      </c>
+      <c r="C112" t="s">
+        <v>10</v>
+      </c>
+      <c r="D112" s="1">
+        <v>27454</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F112" t="s">
+        <v>12</v>
+      </c>
+      <c r="G112">
+        <v>1</v>
+      </c>
+      <c r="H112" t="s">
+        <v>13</v>
+      </c>
+      <c r="I112" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>525</v>
+      </c>
+      <c r="B113" t="s">
+        <v>184</v>
+      </c>
+      <c r="C113" t="s">
+        <v>273</v>
+      </c>
+      <c r="D113" s="1">
+        <v>26848</v>
+      </c>
+      <c r="E113" t="s">
+        <v>139</v>
+      </c>
+      <c r="F113" t="s">
+        <v>36</v>
+      </c>
+      <c r="G113">
+        <v>1</v>
+      </c>
+      <c r="H113" t="s">
+        <v>526</v>
+      </c>
+      <c r="I113" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>423</v>
+      </c>
+      <c r="B114" t="s">
+        <v>82</v>
+      </c>
+      <c r="C114" t="s">
+        <v>83</v>
+      </c>
+      <c r="D114" s="1">
+        <v>33297</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F114" t="s">
+        <v>49</v>
+      </c>
+      <c r="G114">
+        <v>1</v>
+      </c>
+      <c r="H114" t="s">
+        <v>85</v>
+      </c>
+      <c r="I114" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>869</v>
+      </c>
+      <c r="B115" t="s">
+        <v>870</v>
+      </c>
+      <c r="C115" t="s">
+        <v>871</v>
+      </c>
+      <c r="D115" s="1">
+        <v>36021</v>
+      </c>
+      <c r="E115" t="s">
+        <v>181</v>
+      </c>
+      <c r="F115" t="s">
+        <v>18</v>
+      </c>
+      <c r="G115">
+        <v>5</v>
+      </c>
+      <c r="H115" t="s">
+        <v>872</v>
+      </c>
+      <c r="I115" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>603</v>
+      </c>
+      <c r="B116" t="s">
+        <v>604</v>
+      </c>
+      <c r="C116" t="s">
+        <v>605</v>
+      </c>
+      <c r="D116" s="1">
+        <v>33615</v>
+      </c>
+      <c r="E116" t="s">
+        <v>379</v>
+      </c>
+      <c r="F116" t="s">
+        <v>36</v>
+      </c>
+      <c r="G116">
+        <v>1</v>
+      </c>
+      <c r="H116" t="s">
+        <v>606</v>
+      </c>
+      <c r="I116" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>743</v>
+      </c>
+      <c r="B117" t="s">
+        <v>82</v>
+      </c>
+      <c r="C117" t="s">
+        <v>83</v>
+      </c>
+      <c r="D117" s="1">
+        <v>34041</v>
+      </c>
+      <c r="E117" t="s">
+        <v>744</v>
+      </c>
+      <c r="F117" t="s">
+        <v>42</v>
+      </c>
+      <c r="G117">
+        <v>3</v>
+      </c>
+      <c r="H117" t="s">
+        <v>745</v>
+      </c>
+      <c r="I117" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>489</v>
+      </c>
+      <c r="B118" t="s">
+        <v>33</v>
+      </c>
+      <c r="C118" t="s">
+        <v>157</v>
+      </c>
+      <c r="D118" s="1">
+        <v>28044</v>
+      </c>
+      <c r="E118" t="s">
+        <v>361</v>
+      </c>
+      <c r="F118" t="s">
+        <v>49</v>
+      </c>
+      <c r="G118">
+        <v>2</v>
+      </c>
+      <c r="H118" t="s">
+        <v>362</v>
+      </c>
+      <c r="I118" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>446</v>
+      </c>
+      <c r="B119" t="s">
+        <v>21</v>
+      </c>
+      <c r="C119" t="s">
+        <v>191</v>
+      </c>
+      <c r="D119" s="1">
+        <v>28660</v>
+      </c>
+      <c r="E119" t="s">
+        <v>192</v>
+      </c>
+      <c r="F119" t="s">
+        <v>55</v>
+      </c>
+      <c r="G119">
+        <v>4</v>
+      </c>
+      <c r="H119" t="s">
+        <v>193</v>
+      </c>
+      <c r="I119" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>468</v>
+      </c>
+      <c r="B120" t="s">
+        <v>283</v>
+      </c>
+      <c r="C120" t="s">
+        <v>284</v>
+      </c>
+      <c r="D120" s="1">
+        <v>32903</v>
+      </c>
+      <c r="E120" t="s">
+        <v>203</v>
+      </c>
+      <c r="F120" t="s">
+        <v>55</v>
+      </c>
+      <c r="G120">
+        <v>1</v>
+      </c>
+      <c r="H120" t="s">
+        <v>285</v>
+      </c>
+      <c r="I120" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>653</v>
+      </c>
+      <c r="B121" t="s">
+        <v>293</v>
+      </c>
+      <c r="C121" t="s">
+        <v>654</v>
+      </c>
+      <c r="D121" s="1">
+        <v>30319</v>
+      </c>
+      <c r="E121" t="s">
+        <v>61</v>
+      </c>
+      <c r="F121" t="s">
+        <v>55</v>
+      </c>
+      <c r="G121">
+        <v>1</v>
+      </c>
+      <c r="H121" t="s">
+        <v>655</v>
+      </c>
+      <c r="I121" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>806</v>
+      </c>
+      <c r="B122" t="s">
+        <v>807</v>
+      </c>
+      <c r="C122" t="s">
+        <v>808</v>
+      </c>
+      <c r="D122" s="1">
+        <v>27548</v>
+      </c>
+      <c r="E122" t="s">
+        <v>809</v>
+      </c>
+      <c r="F122" t="s">
+        <v>42</v>
+      </c>
+      <c r="G122">
+        <v>5</v>
+      </c>
+      <c r="H122" t="s">
+        <v>810</v>
+      </c>
+      <c r="I122" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>657</v>
+      </c>
+      <c r="B123" t="s">
+        <v>329</v>
+      </c>
+      <c r="C123" t="s">
+        <v>658</v>
+      </c>
+      <c r="D123" s="1">
+        <v>32550</v>
+      </c>
+      <c r="E123" t="s">
+        <v>213</v>
+      </c>
+      <c r="F123" t="s">
+        <v>79</v>
+      </c>
+      <c r="G123" t="s">
+        <v>43</v>
+      </c>
+      <c r="H123" t="s">
+        <v>659</v>
+      </c>
+      <c r="I123" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>709</v>
+      </c>
+      <c r="B124" t="s">
+        <v>243</v>
+      </c>
+      <c r="C124" t="s">
+        <v>710</v>
+      </c>
+      <c r="D124" s="1">
+        <v>33688</v>
+      </c>
+      <c r="E124" t="s">
+        <v>41</v>
+      </c>
+      <c r="F124" t="s">
+        <v>18</v>
+      </c>
+      <c r="G124">
+        <v>2</v>
+      </c>
+      <c r="H124" t="s">
+        <v>711</v>
+      </c>
+      <c r="I124" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>420</v>
+      </c>
+      <c r="B125" t="s">
+        <v>65</v>
+      </c>
+      <c r="C125" t="s">
+        <v>66</v>
+      </c>
+      <c r="D125" s="1">
+        <v>28996</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F125" t="s">
+        <v>68</v>
+      </c>
+      <c r="G125">
+        <v>2</v>
+      </c>
+      <c r="H125" t="s">
+        <v>69</v>
+      </c>
+      <c r="I125" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>499</v>
+      </c>
+      <c r="B126" t="s">
+        <v>127</v>
+      </c>
+      <c r="C126" t="s">
+        <v>254</v>
+      </c>
+      <c r="D126" s="1">
+        <v>27618</v>
+      </c>
+      <c r="E126" t="s">
+        <v>391</v>
+      </c>
+      <c r="F126" t="s">
+        <v>49</v>
+      </c>
+      <c r="G126">
+        <v>2</v>
+      </c>
+      <c r="H126" t="s">
+        <v>392</v>
+      </c>
+      <c r="I126" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>450</v>
+      </c>
+      <c r="B127" t="s">
+        <v>206</v>
+      </c>
+      <c r="C127" t="s">
+        <v>207</v>
+      </c>
+      <c r="D127" s="1">
+        <v>37187</v>
+      </c>
+      <c r="E127" t="s">
+        <v>208</v>
+      </c>
+      <c r="F127" t="s">
+        <v>49</v>
+      </c>
+      <c r="G127" t="s">
+        <v>56</v>
+      </c>
+      <c r="H127" t="s">
+        <v>209</v>
+      </c>
+      <c r="I127" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>480</v>
+      </c>
+      <c r="B128" t="s">
+        <v>324</v>
+      </c>
+      <c r="C128" t="s">
+        <v>325</v>
+      </c>
+      <c r="D128" s="1">
+        <v>36544</v>
+      </c>
+      <c r="E128" t="s">
+        <v>326</v>
+      </c>
+      <c r="F128" t="s">
+        <v>90</v>
+      </c>
+      <c r="G128" t="s">
+        <v>43</v>
+      </c>
+      <c r="H128" t="s">
+        <v>327</v>
+      </c>
+      <c r="I128" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>582</v>
+      </c>
+      <c r="B129" t="s">
+        <v>583</v>
+      </c>
+      <c r="C129" t="s">
+        <v>584</v>
+      </c>
+      <c r="D129" s="1">
+        <v>31991</v>
+      </c>
+      <c r="E129" t="s">
+        <v>54</v>
+      </c>
+      <c r="F129" t="s">
+        <v>49</v>
+      </c>
+      <c r="G129" t="s">
+        <v>56</v>
+      </c>
+      <c r="H129" t="s">
+        <v>585</v>
+      </c>
+      <c r="I129" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>757</v>
+      </c>
+      <c r="B130" t="s">
+        <v>758</v>
+      </c>
+      <c r="C130" t="s">
+        <v>759</v>
+      </c>
+      <c r="D130" s="1">
+        <v>34466</v>
+      </c>
+      <c r="E130" t="s">
+        <v>760</v>
+      </c>
+      <c r="F130" t="s">
+        <v>79</v>
+      </c>
+      <c r="G130">
+        <v>1</v>
+      </c>
+      <c r="H130" t="s">
+        <v>761</v>
+      </c>
+      <c r="I130" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>469</v>
+      </c>
+      <c r="B131" t="s">
+        <v>122</v>
+      </c>
+      <c r="C131" t="s">
+        <v>287</v>
+      </c>
+      <c r="D131" s="1">
+        <v>20128</v>
+      </c>
+      <c r="E131" t="s">
+        <v>35</v>
+      </c>
+      <c r="F131" t="s">
+        <v>24</v>
+      </c>
+      <c r="G131">
+        <v>2</v>
+      </c>
+      <c r="H131" t="s">
+        <v>288</v>
+      </c>
+      <c r="I131" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>488</v>
+      </c>
+      <c r="B132" t="s">
+        <v>46</v>
+      </c>
+      <c r="C132" t="s">
+        <v>357</v>
+      </c>
+      <c r="D132" s="1">
+        <v>29831</v>
+      </c>
+      <c r="E132" t="s">
+        <v>358</v>
+      </c>
+      <c r="F132" t="s">
+        <v>36</v>
+      </c>
+      <c r="G132">
+        <v>1</v>
+      </c>
+      <c r="H132" t="s">
+        <v>359</v>
+      </c>
+      <c r="I132" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>416</v>
+      </c>
+      <c r="B133" t="s">
+        <v>39</v>
+      </c>
+      <c r="C133" t="s">
+        <v>40</v>
+      </c>
+      <c r="D133" s="1">
+        <v>34074</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F133" t="s">
+        <v>42</v>
+      </c>
+      <c r="G133" t="s">
+        <v>43</v>
+      </c>
+      <c r="H133" t="s">
+        <v>44</v>
+      </c>
+      <c r="I133" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>551</v>
+      </c>
+      <c r="B134" t="s">
+        <v>206</v>
+      </c>
+      <c r="C134" t="s">
+        <v>552</v>
+      </c>
+      <c r="D134" s="1">
+        <v>28865</v>
+      </c>
+      <c r="E134" t="s">
+        <v>553</v>
+      </c>
+      <c r="F134" t="s">
+        <v>62</v>
+      </c>
+      <c r="G134">
+        <v>1</v>
+      </c>
+      <c r="H134" t="s">
+        <v>554</v>
+      </c>
+      <c r="I134" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>428</v>
+      </c>
+      <c r="B135" t="s">
+        <v>107</v>
+      </c>
+      <c r="C135" t="s">
+        <v>108</v>
+      </c>
+      <c r="D135" s="1">
+        <v>30139</v>
+      </c>
+      <c r="E135" t="s">
+        <v>109</v>
+      </c>
+      <c r="F135" t="s">
+        <v>24</v>
+      </c>
+      <c r="G135" t="s">
+        <v>56</v>
+      </c>
+      <c r="H135" t="s">
+        <v>110</v>
+      </c>
+      <c r="I135" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>538</v>
+      </c>
+      <c r="B136" t="s">
+        <v>224</v>
+      </c>
+      <c r="C136" t="s">
+        <v>539</v>
+      </c>
+      <c r="D136" s="1">
+        <v>37170</v>
+      </c>
+      <c r="E136" t="s">
+        <v>213</v>
+      </c>
+      <c r="F136" t="s">
+        <v>90</v>
+      </c>
+      <c r="G136" t="s">
+        <v>56</v>
+      </c>
+      <c r="H136" t="s">
+        <v>540</v>
+      </c>
+      <c r="I136" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>787</v>
+      </c>
+      <c r="B137" t="s">
+        <v>788</v>
+      </c>
+      <c r="C137" t="s">
+        <v>265</v>
+      </c>
+      <c r="D137" s="1">
+        <v>34286</v>
+      </c>
+      <c r="E137" t="s">
+        <v>266</v>
+      </c>
+      <c r="F137" t="s">
+        <v>42</v>
+      </c>
+      <c r="G137" t="s">
+        <v>43</v>
+      </c>
+      <c r="H137" t="s">
+        <v>789</v>
+      </c>
+      <c r="I137" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>448</v>
+      </c>
+      <c r="B138" t="s">
+        <v>9</v>
+      </c>
+      <c r="C138" t="s">
+        <v>47</v>
+      </c>
+      <c r="D138" s="1">
+        <v>23233</v>
+      </c>
+      <c r="E138" t="s">
+        <v>199</v>
+      </c>
+      <c r="F138" t="s">
+        <v>79</v>
+      </c>
+      <c r="G138">
+        <v>2</v>
+      </c>
+      <c r="H138" t="s">
+        <v>200</v>
+      </c>
+      <c r="I138" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>479</v>
+      </c>
+      <c r="B139" t="s">
+        <v>184</v>
+      </c>
+      <c r="C139" t="s">
+        <v>216</v>
+      </c>
+      <c r="D139" s="1">
+        <v>28468</v>
+      </c>
+      <c r="E139" t="s">
+        <v>321</v>
+      </c>
+      <c r="F139" t="s">
+        <v>49</v>
+      </c>
+      <c r="G139">
+        <v>2</v>
+      </c>
+      <c r="H139" t="s">
+        <v>322</v>
+      </c>
+      <c r="I139" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>634</v>
+      </c>
+      <c r="B140" t="s">
+        <v>27</v>
+      </c>
+      <c r="C140" t="s">
+        <v>635</v>
+      </c>
+      <c r="D140" s="1">
+        <v>34565</v>
+      </c>
+      <c r="E140" t="s">
+        <v>94</v>
+      </c>
+      <c r="F140" t="s">
+        <v>18</v>
+      </c>
+      <c r="G140">
+        <v>1</v>
+      </c>
+      <c r="H140" t="s">
+        <v>636</v>
+      </c>
+      <c r="I140" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>841</v>
+      </c>
+      <c r="B141" t="s">
+        <v>842</v>
+      </c>
+      <c r="C141" t="s">
+        <v>843</v>
+      </c>
+      <c r="D141" s="1">
+        <v>32981</v>
+      </c>
+      <c r="E141" t="s">
+        <v>844</v>
+      </c>
+      <c r="F141" t="s">
+        <v>18</v>
+      </c>
+      <c r="G141">
+        <v>5</v>
+      </c>
+      <c r="H141" t="s">
+        <v>845</v>
+      </c>
+      <c r="I141" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>455</v>
+      </c>
+      <c r="B142" t="s">
+        <v>46</v>
+      </c>
+      <c r="C142" t="s">
+        <v>229</v>
+      </c>
+      <c r="D142" s="1">
+        <v>35493</v>
+      </c>
+      <c r="E142" t="s">
+        <v>230</v>
+      </c>
+      <c r="F142" t="s">
+        <v>90</v>
+      </c>
+      <c r="G142">
+        <v>1</v>
+      </c>
+      <c r="H142" t="s">
+        <v>231</v>
+      </c>
+      <c r="I142" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>472</v>
+      </c>
+      <c r="B143" t="s">
+        <v>297</v>
+      </c>
+      <c r="C143" t="s">
+        <v>16</v>
+      </c>
+      <c r="D143" s="1">
+        <v>31903</v>
+      </c>
+      <c r="E143" t="s">
+        <v>298</v>
+      </c>
+      <c r="F143" t="s">
+        <v>36</v>
+      </c>
+      <c r="G143">
+        <v>5</v>
+      </c>
+      <c r="H143" t="s">
+        <v>299</v>
+      </c>
+      <c r="I143" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>669</v>
+      </c>
+      <c r="B144" t="s">
+        <v>562</v>
+      </c>
+      <c r="C144" t="s">
+        <v>357</v>
+      </c>
+      <c r="D144" s="1">
+        <v>37033</v>
+      </c>
+      <c r="E144" t="s">
+        <v>670</v>
+      </c>
+      <c r="F144" t="s">
+        <v>79</v>
+      </c>
+      <c r="G144">
+        <v>2</v>
+      </c>
+      <c r="H144" t="s">
+        <v>671</v>
+      </c>
+      <c r="I144" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>496</v>
+      </c>
+      <c r="B145" t="s">
+        <v>27</v>
+      </c>
+      <c r="C145" t="s">
+        <v>382</v>
+      </c>
+      <c r="D145" s="1">
+        <v>35200</v>
+      </c>
+      <c r="E145" t="s">
+        <v>94</v>
+      </c>
+      <c r="F145" t="s">
+        <v>30</v>
+      </c>
+      <c r="G145">
+        <v>1</v>
+      </c>
+      <c r="H145" t="s">
+        <v>383</v>
+      </c>
+      <c r="I145" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>738</v>
+      </c>
+      <c r="B146" t="s">
+        <v>739</v>
+      </c>
+      <c r="C146" t="s">
+        <v>740</v>
+      </c>
+      <c r="D146" s="1">
+        <v>32372</v>
+      </c>
+      <c r="E146" t="s">
+        <v>255</v>
+      </c>
+      <c r="F146" t="s">
+        <v>36</v>
+      </c>
+      <c r="G146">
+        <v>2</v>
+      </c>
+      <c r="H146" t="s">
+        <v>741</v>
+      </c>
+      <c r="I146" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>577</v>
+      </c>
+      <c r="B147" t="s">
+        <v>578</v>
+      </c>
+      <c r="C147" t="s">
+        <v>337</v>
+      </c>
+      <c r="D147" s="1">
+        <v>33074</v>
+      </c>
+      <c r="E147" t="s">
+        <v>579</v>
+      </c>
+      <c r="F147" t="s">
+        <v>90</v>
+      </c>
+      <c r="G147">
+        <v>3</v>
+      </c>
+      <c r="H147" t="s">
+        <v>580</v>
+      </c>
+      <c r="I147" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>435</v>
+      </c>
+      <c r="B148" t="s">
+        <v>142</v>
+      </c>
+      <c r="C148" t="s">
+        <v>143</v>
+      </c>
+      <c r="D148" s="1">
+        <v>37354</v>
+      </c>
+      <c r="E148" t="s">
+        <v>144</v>
+      </c>
+      <c r="F148" t="s">
+        <v>30</v>
+      </c>
+      <c r="G148">
+        <v>1</v>
+      </c>
+      <c r="H148" t="s">
+        <v>145</v>
+      </c>
+      <c r="I148" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>542</v>
+      </c>
+      <c r="B149" t="s">
+        <v>543</v>
+      </c>
+      <c r="C149" t="s">
+        <v>265</v>
+      </c>
+      <c r="D149" s="1">
+        <v>30274</v>
+      </c>
+      <c r="E149" t="s">
+        <v>544</v>
+      </c>
+      <c r="F149" t="s">
+        <v>49</v>
+      </c>
+      <c r="G149">
+        <v>1</v>
+      </c>
+      <c r="H149" t="s">
+        <v>545</v>
+      </c>
+      <c r="I149" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>847</v>
+      </c>
+      <c r="B150" t="s">
+        <v>848</v>
+      </c>
+      <c r="C150" t="s">
+        <v>849</v>
+      </c>
+      <c r="D150" s="1">
+        <v>22949</v>
+      </c>
+      <c r="E150" t="s">
+        <v>850</v>
+      </c>
+      <c r="F150" t="s">
+        <v>90</v>
+      </c>
+      <c r="G150">
+        <v>5</v>
+      </c>
+      <c r="H150" t="s">
+        <v>851</v>
+      </c>
+      <c r="I150" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>661</v>
+      </c>
+      <c r="B151" t="s">
+        <v>15</v>
+      </c>
+      <c r="C151" t="s">
+        <v>662</v>
+      </c>
+      <c r="D151" s="1">
+        <v>28206</v>
+      </c>
+      <c r="E151" t="s">
+        <v>11</v>
+      </c>
+      <c r="F151" t="s">
+        <v>90</v>
+      </c>
+      <c r="G151">
+        <v>1</v>
+      </c>
+      <c r="H151" t="s">
+        <v>663</v>
+      </c>
+      <c r="I151" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>485</v>
+      </c>
+      <c r="B152" t="s">
+        <v>147</v>
+      </c>
+      <c r="C152" t="s">
+        <v>344</v>
+      </c>
+      <c r="D152" s="1">
+        <v>37046</v>
+      </c>
+      <c r="E152" t="s">
+        <v>345</v>
+      </c>
+      <c r="F152" t="s">
+        <v>90</v>
+      </c>
+      <c r="G152">
+        <v>3</v>
+      </c>
+      <c r="H152" t="s">
+        <v>346</v>
+      </c>
+      <c r="I152" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>460</v>
+      </c>
+      <c r="B153" t="s">
+        <v>253</v>
+      </c>
+      <c r="C153" t="s">
+        <v>254</v>
+      </c>
+      <c r="D153" s="1">
+        <v>32014</v>
+      </c>
+      <c r="E153" t="s">
+        <v>255</v>
+      </c>
+      <c r="F153" t="s">
+        <v>36</v>
+      </c>
+      <c r="G153" t="s">
+        <v>56</v>
+      </c>
+      <c r="H153" t="s">
+        <v>256</v>
+      </c>
+      <c r="I153" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>432</v>
+      </c>
+      <c r="B154" t="s">
+        <v>127</v>
+      </c>
+      <c r="C154" t="s">
+        <v>128</v>
+      </c>
+      <c r="D154" s="1">
+        <v>30320</v>
+      </c>
+      <c r="E154" t="s">
+        <v>129</v>
+      </c>
+      <c r="F154" t="s">
+        <v>42</v>
+      </c>
+      <c r="G154">
+        <v>2</v>
+      </c>
+      <c r="H154" t="s">
+        <v>130</v>
+      </c>
+      <c r="I154" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>692</v>
+      </c>
+      <c r="B155" t="s">
+        <v>693</v>
+      </c>
+      <c r="C155" t="s">
+        <v>212</v>
+      </c>
+      <c r="D155" s="1">
+        <v>36122</v>
+      </c>
+      <c r="E155" t="s">
+        <v>73</v>
+      </c>
+      <c r="F155" t="s">
+        <v>90</v>
+      </c>
+      <c r="G155">
+        <v>2</v>
+      </c>
+      <c r="H155" t="s">
+        <v>694</v>
+      </c>
+      <c r="I155" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>474</v>
+      </c>
+      <c r="B156" t="s">
+        <v>253</v>
+      </c>
+      <c r="C156" t="s">
+        <v>305</v>
+      </c>
+      <c r="D156" s="1">
+        <v>29059</v>
+      </c>
+      <c r="E156" t="s">
+        <v>240</v>
+      </c>
+      <c r="F156" t="s">
+        <v>24</v>
+      </c>
+      <c r="G156">
+        <v>1</v>
+      </c>
+      <c r="H156" t="s">
+        <v>306</v>
+      </c>
+      <c r="I156" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>677</v>
+      </c>
+      <c r="B157" t="s">
+        <v>314</v>
+      </c>
+      <c r="C157" t="s">
+        <v>521</v>
+      </c>
+      <c r="D157" s="1">
+        <v>34168</v>
+      </c>
+      <c r="E157" t="s">
+        <v>364</v>
+      </c>
+      <c r="F157" t="s">
+        <v>55</v>
+      </c>
+      <c r="G157">
+        <v>2</v>
+      </c>
+      <c r="H157" t="s">
+        <v>678</v>
+      </c>
+      <c r="I157" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>599</v>
+      </c>
+      <c r="B158" t="s">
+        <v>21</v>
+      </c>
+      <c r="C158" t="s">
+        <v>600</v>
+      </c>
+      <c r="D158" s="1">
+        <v>37595</v>
+      </c>
+      <c r="E158" t="s">
+        <v>358</v>
+      </c>
+      <c r="F158" t="s">
+        <v>30</v>
+      </c>
+      <c r="G158">
+        <v>3</v>
+      </c>
+      <c r="H158" t="s">
+        <v>601</v>
+      </c>
+      <c r="I158" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>421</v>
+      </c>
+      <c r="B159" t="s">
+        <v>71</v>
+      </c>
+      <c r="C159" t="s">
+        <v>72</v>
+      </c>
+      <c r="D159" s="1">
+        <v>34982</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F159" t="s">
+        <v>18</v>
+      </c>
+      <c r="G159">
+        <v>1</v>
+      </c>
+      <c r="H159" t="s">
+        <v>74</v>
+      </c>
+      <c r="I159" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>796</v>
+      </c>
+      <c r="B160" t="s">
+        <v>797</v>
+      </c>
+      <c r="C160" t="s">
+        <v>399</v>
+      </c>
+      <c r="D160" s="1">
+        <v>29982</v>
+      </c>
+      <c r="E160" t="s">
+        <v>798</v>
+      </c>
+      <c r="F160" t="s">
+        <v>18</v>
+      </c>
+      <c r="G160">
+        <v>1</v>
+      </c>
+      <c r="H160" t="s">
+        <v>799</v>
+      </c>
+      <c r="I160" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>492</v>
+      </c>
+      <c r="B161" t="s">
+        <v>9</v>
+      </c>
+      <c r="C161" t="s">
+        <v>370</v>
+      </c>
+      <c r="D161" s="1">
+        <v>32883</v>
+      </c>
+      <c r="E161" t="s">
+        <v>163</v>
+      </c>
+      <c r="F161" t="s">
+        <v>79</v>
+      </c>
+      <c r="G161">
+        <v>1</v>
+      </c>
+      <c r="H161" t="s">
+        <v>371</v>
+      </c>
+      <c r="I161" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>630</v>
+      </c>
+      <c r="B162" t="s">
+        <v>238</v>
+      </c>
+      <c r="C162" t="s">
+        <v>631</v>
+      </c>
+      <c r="D162" s="1">
+        <v>37813</v>
+      </c>
+      <c r="E162" t="s">
+        <v>23</v>
+      </c>
+      <c r="F162" t="s">
+        <v>24</v>
+      </c>
+      <c r="G162" t="s">
+        <v>56</v>
+      </c>
+      <c r="H162" t="s">
+        <v>632</v>
+      </c>
+      <c r="I162" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>812</v>
+      </c>
+      <c r="B163" t="s">
+        <v>813</v>
+      </c>
+      <c r="C163" t="s">
+        <v>814</v>
+      </c>
+      <c r="D163" s="1">
+        <v>32679</v>
+      </c>
+      <c r="E163" t="s">
+        <v>815</v>
+      </c>
+      <c r="F163" t="s">
+        <v>62</v>
+      </c>
+      <c r="G163" t="s">
+        <v>43</v>
+      </c>
+      <c r="H163" t="s">
+        <v>816</v>
+      </c>
+      <c r="I163" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>412</v>
+      </c>
+      <c r="B164" t="s">
+        <v>15</v>
+      </c>
+      <c r="C164" t="s">
+        <v>16</v>
+      </c>
+      <c r="D164" s="1">
+        <v>32316</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F164" t="s">
+        <v>18</v>
+      </c>
+      <c r="G164">
+        <v>2</v>
+      </c>
+      <c r="H164" t="s">
+        <v>19</v>
+      </c>
+      <c r="I164" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>836</v>
+      </c>
+      <c r="B165" t="s">
+        <v>837</v>
+      </c>
+      <c r="C165" t="s">
+        <v>838</v>
+      </c>
+      <c r="D165" s="1">
+        <v>29027</v>
+      </c>
+      <c r="E165" t="s">
+        <v>89</v>
+      </c>
+      <c r="F165" t="s">
+        <v>24</v>
+      </c>
+      <c r="G165">
+        <v>5</v>
+      </c>
+      <c r="H165" t="s">
+        <v>839</v>
+      </c>
+      <c r="I165" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>464</v>
+      </c>
+      <c r="B166" t="s">
+        <v>9</v>
+      </c>
+      <c r="C166" t="s">
+        <v>269</v>
+      </c>
+      <c r="D166" s="1">
+        <v>27638</v>
+      </c>
+      <c r="E166" t="s">
+        <v>270</v>
+      </c>
+      <c r="F166" t="s">
+        <v>30</v>
+      </c>
+      <c r="G166">
+        <v>1</v>
+      </c>
+      <c r="H166" t="s">
+        <v>271</v>
+      </c>
+      <c r="I166" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>503</v>
+      </c>
+      <c r="B167" t="s">
+        <v>219</v>
+      </c>
+      <c r="C167" t="s">
+        <v>504</v>
+      </c>
+      <c r="D167" s="1">
+        <v>35472</v>
+      </c>
+      <c r="E167" t="s">
+        <v>326</v>
+      </c>
+      <c r="F167" t="s">
+        <v>49</v>
+      </c>
+      <c r="G167">
+        <v>2</v>
+      </c>
+      <c r="H167" t="s">
+        <v>505</v>
+      </c>
+      <c r="I167" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>434</v>
+      </c>
+      <c r="B168" t="s">
+        <v>137</v>
+      </c>
+      <c r="C168" t="s">
+        <v>138</v>
+      </c>
+      <c r="D168" s="1">
+        <v>24549</v>
+      </c>
+      <c r="E168" t="s">
+        <v>139</v>
+      </c>
+      <c r="F168" t="s">
+        <v>18</v>
+      </c>
+      <c r="G168">
+        <v>5</v>
+      </c>
+      <c r="H168" t="s">
+        <v>140</v>
+      </c>
+      <c r="I168" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>426</v>
+      </c>
+      <c r="B169" t="s">
+        <v>97</v>
+      </c>
+      <c r="C169" t="s">
+        <v>98</v>
+      </c>
+      <c r="D169" s="1">
+        <v>23884</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F169" t="s">
+        <v>62</v>
+      </c>
+      <c r="G169">
+        <v>4</v>
+      </c>
+      <c r="H169" t="s">
+        <v>100</v>
+      </c>
+      <c r="I169" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>462</v>
+      </c>
+      <c r="B170" t="s">
+        <v>52</v>
+      </c>
+      <c r="C170" t="s">
+        <v>262</v>
+      </c>
+      <c r="D170" s="1">
+        <v>35261</v>
+      </c>
+      <c r="E170" t="s">
+        <v>104</v>
+      </c>
+      <c r="F170" t="s">
+        <v>79</v>
+      </c>
+      <c r="G170">
+        <v>1</v>
+      </c>
+      <c r="H170" t="s">
+        <v>263</v>
+      </c>
+      <c r="I170" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>502</v>
+      </c>
+      <c r="B171" t="s">
+        <v>402</v>
+      </c>
+      <c r="C171" t="s">
+        <v>176</v>
+      </c>
+      <c r="D171" s="1">
         <v>31048</v>
       </c>
-      <c r="E93" t="s">
+      <c r="E171" t="s">
         <v>89</v>
       </c>
-      <c r="F93" t="s">
+      <c r="F171" t="s">
         <v>90</v>
       </c>
-      <c r="G93">
+      <c r="G171">
         <v>1</v>
       </c>
-      <c r="H93" t="s">
+      <c r="H171" t="s">
         <v>403</v>
       </c>
-      <c r="I93" t="s">
+      <c r="I171" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A94" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="B94" t="s">
-        <v>406</v>
-      </c>
-      <c r="C94" t="s">
-        <v>407</v>
-      </c>
-      <c r="D94" s="1">
-        <v>29800</v>
-      </c>
-      <c r="E94" t="s">
-        <v>408</v>
-      </c>
-      <c r="F94" t="s">
-        <v>49</v>
-      </c>
-      <c r="G94" t="s">
-        <v>56</v>
-      </c>
-      <c r="H94" t="s">
-        <v>409</v>
-      </c>
-      <c r="I94" t="s">
-        <v>410</v>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A172" t="s">
+        <v>587</v>
+      </c>
+      <c r="B172" t="s">
+        <v>9</v>
+      </c>
+      <c r="C172" t="s">
+        <v>588</v>
+      </c>
+      <c r="D172" s="1">
+        <v>29467</v>
+      </c>
+      <c r="E172" t="s">
+        <v>589</v>
+      </c>
+      <c r="F172" t="s">
+        <v>18</v>
+      </c>
+      <c r="G172">
+        <v>1</v>
+      </c>
+      <c r="H172" t="s">
+        <v>590</v>
+      </c>
+      <c r="I172" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>483</v>
+      </c>
+      <c r="B173" t="s">
+        <v>27</v>
+      </c>
+      <c r="C173" t="s">
+        <v>337</v>
+      </c>
+      <c r="D173" s="1">
+        <v>34805</v>
+      </c>
+      <c r="E173" t="s">
+        <v>158</v>
+      </c>
+      <c r="F173" t="s">
+        <v>79</v>
+      </c>
+      <c r="G173">
+        <v>2</v>
+      </c>
+      <c r="H173" t="s">
+        <v>338</v>
+      </c>
+      <c r="I173" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>783</v>
+      </c>
+      <c r="B174" t="s">
+        <v>543</v>
+      </c>
+      <c r="C174" t="s">
+        <v>784</v>
+      </c>
+      <c r="D174" s="1">
+        <v>37533</v>
+      </c>
+      <c r="E174" t="s">
+        <v>73</v>
+      </c>
+      <c r="F174" t="s">
+        <v>18</v>
+      </c>
+      <c r="G174">
+        <v>2</v>
+      </c>
+      <c r="H174" t="s">
+        <v>785</v>
+      </c>
+      <c r="I174" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>699</v>
+      </c>
+      <c r="B175" t="s">
+        <v>402</v>
+      </c>
+      <c r="C175" t="s">
+        <v>700</v>
+      </c>
+      <c r="D175" s="1">
+        <v>30691</v>
+      </c>
+      <c r="E175" t="s">
+        <v>701</v>
+      </c>
+      <c r="F175" t="s">
+        <v>36</v>
+      </c>
+      <c r="G175">
+        <v>3</v>
+      </c>
+      <c r="H175" t="s">
+        <v>702</v>
+      </c>
+      <c r="I175" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A176" t="s">
+        <v>645</v>
+      </c>
+      <c r="B176" t="s">
+        <v>646</v>
+      </c>
+      <c r="C176" t="s">
+        <v>265</v>
+      </c>
+      <c r="D176" s="1">
+        <v>33559</v>
+      </c>
+      <c r="E176" t="s">
+        <v>99</v>
+      </c>
+      <c r="F176" t="s">
+        <v>36</v>
+      </c>
+      <c r="G176">
+        <v>1</v>
+      </c>
+      <c r="H176" t="s">
+        <v>647</v>
+      </c>
+      <c r="I176" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>445</v>
+      </c>
+      <c r="B177" t="s">
+        <v>52</v>
+      </c>
+      <c r="C177" t="s">
+        <v>40</v>
+      </c>
+      <c r="D177" s="1">
+        <v>37379</v>
+      </c>
+      <c r="E177" t="s">
+        <v>188</v>
+      </c>
+      <c r="F177" t="s">
+        <v>90</v>
+      </c>
+      <c r="G177">
+        <v>1</v>
+      </c>
+      <c r="H177" t="s">
+        <v>189</v>
+      </c>
+      <c r="I177" t="s">
+        <v>190</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I177">
+    <sortCondition ref="A2:A177"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>